--- a/LR3/table_1_6.xlsx
+++ b/LR3/table_1_6.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5E29132-28A8-4187-AD9A-E4780D3FA786}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8078725-21BA-497F-A805-8D5E1E0B0517}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -505,8 +505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,7 +616,6 @@
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <f>A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -627,7 +626,7 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D38" si="0">$A$1*1.1</f>
+        <f t="shared" ref="D4:D34" si="0">$A$1*1.1</f>
         <v>6.6000000000000005</v>
       </c>
       <c r="E4" s="1">
@@ -658,14 +657,13 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <f t="shared" ref="A5:A38" si="5">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C38" si="6">C4-0.5</f>
+        <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="1">
@@ -700,14 +698,13 @@
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
@@ -742,14 +739,13 @@
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="D7" s="1">
@@ -784,14 +780,13 @@
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="1">
@@ -826,14 +821,13 @@
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="D9" s="1">
@@ -868,14 +862,13 @@
     </row>
     <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="1">
@@ -910,14 +903,13 @@
     </row>
     <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="D11" s="1">
@@ -952,14 +944,13 @@
     </row>
     <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="1">
@@ -994,14 +985,13 @@
     </row>
     <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="D13" s="1">
@@ -1036,14 +1026,13 @@
     </row>
     <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="1">
@@ -1078,14 +1067,13 @@
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="D15" s="1">
@@ -1120,14 +1108,13 @@
     </row>
     <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="1">
@@ -1162,14 +1149,13 @@
     </row>
     <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="D17" s="1">
@@ -1204,14 +1190,13 @@
     </row>
     <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="1">
@@ -1246,14 +1231,13 @@
     </row>
     <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="D19" s="1">
@@ -1288,14 +1272,13 @@
     </row>
     <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="1">
@@ -1330,14 +1313,13 @@
     </row>
     <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="D21" s="1">
@@ -1372,14 +1354,13 @@
     </row>
     <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="1">
@@ -1414,14 +1395,13 @@
     </row>
     <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="D23" s="1">
@@ -1456,14 +1436,13 @@
     </row>
     <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="1">
@@ -1498,14 +1477,13 @@
     </row>
     <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="D25" s="1">
@@ -1540,14 +1518,13 @@
     </row>
     <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="1">
@@ -1582,14 +1559,13 @@
     </row>
     <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="D27" s="1">
@@ -1624,14 +1600,13 @@
     </row>
     <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="1">
@@ -1666,14 +1641,13 @@
     </row>
     <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="D29" s="1">
@@ -1708,14 +1682,13 @@
     </row>
     <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="1">
@@ -1750,14 +1723,13 @@
     </row>
     <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="D31" s="1">
@@ -1792,14 +1764,13 @@
     </row>
     <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="1">
@@ -1834,14 +1805,13 @@
     </row>
     <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="D33" s="1">
@@ -1876,14 +1846,13 @@
     </row>
     <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
@@ -1918,14 +1887,13 @@
     </row>
     <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="D35" s="1">
@@ -1960,18 +1928,17 @@
     </row>
     <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D38" si="7">$A$1*1.1/2</f>
+        <f t="shared" ref="D36:D38" si="6">$A$1*1.1/2</f>
         <v>3.3000000000000003</v>
       </c>
       <c r="E36" s="1">
@@ -2002,18 +1969,17 @@
     </row>
     <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C37" s="1">
+        <f t="shared" si="5"/>
+        <v>53</v>
+      </c>
+      <c r="D37" s="1">
         <f t="shared" si="6"/>
-        <v>53</v>
-      </c>
-      <c r="D37" s="1">
-        <f t="shared" si="7"/>
         <v>3.3000000000000003</v>
       </c>
       <c r="E37" s="1">
@@ -2044,18 +2010,17 @@
     </row>
     <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C38" s="1">
+        <f t="shared" si="5"/>
+        <v>52.5</v>
+      </c>
+      <c r="D38" s="1">
         <f t="shared" si="6"/>
-        <v>52.5</v>
-      </c>
-      <c r="D38" s="1">
-        <f t="shared" si="7"/>
         <v>3.3000000000000003</v>
       </c>
       <c r="E38" s="1">

--- a/LR3/table_1_6.xlsx
+++ b/LR3/table_1_6.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8078725-21BA-497F-A805-8D5E1E0B0517}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27011AF-9429-42CA-A1AE-442DD3478DE6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -172,7 +172,7 @@
     <t>Тариф, руб./кв.м.</t>
   </si>
   <si>
-    <t>Общая сумма графы "Итого", руб.</t>
+    <t>Общая сумма, руб.</t>
   </si>
 </sst>
 </file>
@@ -505,8 +505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,6 +616,7 @@
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
+        <f>A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -657,13 +658,14 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
+        <f t="shared" ref="A5:A38" si="5">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
+        <f t="shared" ref="C5:C38" si="6">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="1">
@@ -698,13 +700,14 @@
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
@@ -739,13 +742,14 @@
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>68</v>
       </c>
       <c r="D7" s="1">
@@ -780,13 +784,14 @@
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="1">
@@ -821,13 +826,14 @@
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>67</v>
       </c>
       <c r="D9" s="1">
@@ -862,13 +868,14 @@
     </row>
     <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="1">
@@ -903,13 +910,14 @@
     </row>
     <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>66</v>
       </c>
       <c r="D11" s="1">
@@ -944,13 +952,14 @@
     </row>
     <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="1">
@@ -985,13 +994,14 @@
     </row>
     <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>65</v>
       </c>
       <c r="D13" s="1">
@@ -1026,13 +1036,14 @@
     </row>
     <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="1">
@@ -1067,13 +1078,14 @@
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64</v>
       </c>
       <c r="D15" s="1">
@@ -1108,13 +1120,14 @@
     </row>
     <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="1">
@@ -1149,13 +1162,14 @@
     </row>
     <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>63</v>
       </c>
       <c r="D17" s="1">
@@ -1190,13 +1204,14 @@
     </row>
     <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="1">
@@ -1231,13 +1246,14 @@
     </row>
     <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>62</v>
       </c>
       <c r="D19" s="1">
@@ -1272,13 +1288,14 @@
     </row>
     <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="1">
@@ -1313,13 +1330,14 @@
     </row>
     <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>61</v>
       </c>
       <c r="D21" s="1">
@@ -1354,13 +1372,14 @@
     </row>
     <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="1">
@@ -1395,13 +1414,14 @@
     </row>
     <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="D23" s="1">
@@ -1436,13 +1456,14 @@
     </row>
     <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="1">
@@ -1477,13 +1498,14 @@
     </row>
     <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>59</v>
       </c>
       <c r="D25" s="1">
@@ -1518,13 +1540,14 @@
     </row>
     <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="1">
@@ -1559,13 +1582,14 @@
     </row>
     <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>58</v>
       </c>
       <c r="D27" s="1">
@@ -1600,13 +1624,14 @@
     </row>
     <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="1">
@@ -1641,13 +1666,14 @@
     </row>
     <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>57</v>
       </c>
       <c r="D29" s="1">
@@ -1682,13 +1708,14 @@
     </row>
     <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="1">
@@ -1723,13 +1750,14 @@
     </row>
     <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>56</v>
       </c>
       <c r="D31" s="1">
@@ -1764,13 +1792,14 @@
     </row>
     <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="1">
@@ -1805,13 +1834,14 @@
     </row>
     <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>55</v>
       </c>
       <c r="D33" s="1">
@@ -1846,13 +1876,14 @@
     </row>
     <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
@@ -1887,13 +1918,14 @@
     </row>
     <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
       <c r="D35" s="1">
@@ -1928,17 +1960,18 @@
     </row>
     <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D38" si="6">$A$1*1.1/2</f>
+        <f t="shared" ref="D36:D38" si="7">$A$1*1.1/2</f>
         <v>3.3000000000000003</v>
       </c>
       <c r="E36" s="1">
@@ -1969,17 +2002,18 @@
     </row>
     <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.3000000000000003</v>
       </c>
       <c r="E37" s="1">
@@ -2010,17 +2044,18 @@
     </row>
     <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.3000000000000003</v>
       </c>
       <c r="E38" s="1">

--- a/LR3/table_1_6.xlsx
+++ b/LR3/table_1_6.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>№ квартиры</t>
   </si>
@@ -148,12 +148,6 @@
     <t>Ершов</t>
   </si>
   <si>
-    <t>Куропаткин 1</t>
-  </si>
-  <si>
-    <t>Куропаткин 2</t>
-  </si>
-  <si>
     <t>Куропаткин 3</t>
   </si>
   <si>
@@ -173,12 +167,15 @@
   </si>
   <si>
     <t>Максимальная сумма просрочки, руб.</t>
+  </si>
+  <si>
+    <t>Бонницин</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -218,7 +215,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -238,9 +235,6 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -253,6 +247,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -535,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,47 +568,47 @@
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>46</v>
+      <c r="J2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="1">
@@ -625,10 +622,10 @@
         <f>C3*D3</f>
         <v>462.00000000000006</v>
       </c>
-      <c r="F3" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G3" s="7">
+      <c r="F3" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G3" s="6">
         <v>44805</v>
       </c>
       <c r="H3" s="1">
@@ -650,10 +647,10 @@
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="1">
@@ -667,10 +664,10 @@
         <f t="shared" ref="E4:E37" si="1">C4*D4</f>
         <v>458.70000000000005</v>
       </c>
-      <c r="F4" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G4" s="7">
+      <c r="F4" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G4" s="6">
         <v>44806</v>
       </c>
       <c r="H4" s="1">
@@ -692,10 +689,10 @@
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="1">
@@ -709,10 +706,10 @@
         <f t="shared" si="1"/>
         <v>455.40000000000003</v>
       </c>
-      <c r="F5" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G5" s="7">
+      <c r="F5" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G5" s="6">
         <v>44807</v>
       </c>
       <c r="H5" s="1">
@@ -734,10 +731,10 @@
       <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="1">
@@ -751,10 +748,10 @@
         <f t="shared" si="1"/>
         <v>452.1</v>
       </c>
-      <c r="F6" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G6" s="7">
+      <c r="F6" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G6" s="6">
         <v>44808</v>
       </c>
       <c r="H6" s="1">
@@ -776,10 +773,10 @@
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="1">
@@ -793,10 +790,10 @@
         <f t="shared" si="1"/>
         <v>448.8</v>
       </c>
-      <c r="F7" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G7" s="7">
+      <c r="F7" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G7" s="6">
         <v>44809</v>
       </c>
       <c r="H7" s="1">
@@ -818,10 +815,10 @@
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="1">
@@ -835,10 +832,10 @@
         <f t="shared" si="1"/>
         <v>445.50000000000006</v>
       </c>
-      <c r="F8" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G8" s="7">
+      <c r="F8" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G8" s="6">
         <v>44810</v>
       </c>
       <c r="H8" s="1">
@@ -860,10 +857,10 @@
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="1">
@@ -877,10 +874,10 @@
         <f t="shared" si="1"/>
         <v>442.20000000000005</v>
       </c>
-      <c r="F9" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G9" s="7">
+      <c r="F9" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G9" s="6">
         <v>44811</v>
       </c>
       <c r="H9" s="1">
@@ -902,10 +899,10 @@
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="1">
@@ -919,10 +916,10 @@
         <f t="shared" si="1"/>
         <v>438.90000000000003</v>
       </c>
-      <c r="F10" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G10" s="7">
+      <c r="F10" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G10" s="6">
         <v>44812</v>
       </c>
       <c r="H10" s="1">
@@ -944,10 +941,10 @@
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="1">
@@ -961,10 +958,10 @@
         <f t="shared" si="1"/>
         <v>435.6</v>
       </c>
-      <c r="F11" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G11" s="7">
+      <c r="F11" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G11" s="6">
         <v>44813</v>
       </c>
       <c r="H11" s="1">
@@ -986,10 +983,10 @@
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>10</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="1">
@@ -1003,10 +1000,10 @@
         <f t="shared" si="1"/>
         <v>432.3</v>
       </c>
-      <c r="F12" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G12" s="7">
+      <c r="F12" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G12" s="6">
         <v>44814</v>
       </c>
       <c r="H12" s="1">
@@ -1028,10 +1025,10 @@
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="1">
@@ -1045,10 +1042,10 @@
         <f t="shared" si="1"/>
         <v>429.00000000000006</v>
       </c>
-      <c r="F13" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G13" s="7">
+      <c r="F13" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G13" s="6">
         <v>44815</v>
       </c>
       <c r="H13" s="1">
@@ -1070,10 +1067,10 @@
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="1">
@@ -1087,10 +1084,10 @@
         <f t="shared" si="1"/>
         <v>425.70000000000005</v>
       </c>
-      <c r="F14" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G14" s="7">
+      <c r="F14" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G14" s="6">
         <v>44816</v>
       </c>
       <c r="H14" s="1">
@@ -1112,10 +1109,10 @@
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="1">
@@ -1129,10 +1126,10 @@
         <f t="shared" si="1"/>
         <v>422.40000000000003</v>
       </c>
-      <c r="F15" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G15" s="7">
+      <c r="F15" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G15" s="6">
         <v>44817</v>
       </c>
       <c r="H15" s="1">
@@ -1154,10 +1151,10 @@
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <v>14</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="1">
@@ -1171,10 +1168,10 @@
         <f t="shared" si="1"/>
         <v>419.1</v>
       </c>
-      <c r="F16" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G16" s="7">
+      <c r="F16" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G16" s="6">
         <v>44818</v>
       </c>
       <c r="H16" s="1">
@@ -1196,10 +1193,10 @@
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <v>15</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="1">
@@ -1213,10 +1210,10 @@
         <f t="shared" si="1"/>
         <v>415.8</v>
       </c>
-      <c r="F17" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G17" s="7">
+      <c r="F17" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G17" s="6">
         <v>44819</v>
       </c>
       <c r="H17" s="1">
@@ -1238,10 +1235,10 @@
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="A18" s="4">
         <v>16</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C18" s="1">
@@ -1255,10 +1252,10 @@
         <f t="shared" si="1"/>
         <v>412.50000000000006</v>
       </c>
-      <c r="F18" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G18" s="7">
+      <c r="F18" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G18" s="6">
         <v>44820</v>
       </c>
       <c r="H18" s="1">
@@ -1280,10 +1277,10 @@
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="A19" s="4">
         <v>17</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C19" s="1">
@@ -1297,10 +1294,10 @@
         <f t="shared" si="1"/>
         <v>409.20000000000005</v>
       </c>
-      <c r="F19" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G19" s="7">
+      <c r="F19" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G19" s="6">
         <v>44821</v>
       </c>
       <c r="H19" s="1">
@@ -1322,10 +1319,10 @@
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="A20" s="4">
         <v>18</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C20" s="1">
@@ -1339,10 +1336,10 @@
         <f t="shared" si="1"/>
         <v>405.90000000000003</v>
       </c>
-      <c r="F20" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G20" s="7">
+      <c r="F20" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G20" s="6">
         <v>44822</v>
       </c>
       <c r="H20" s="1">
@@ -1364,10 +1361,10 @@
       <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+      <c r="A21" s="4">
         <v>19</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C21" s="1">
@@ -1381,10 +1378,10 @@
         <f t="shared" si="1"/>
         <v>402.6</v>
       </c>
-      <c r="F21" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G21" s="7">
+      <c r="F21" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G21" s="6">
         <v>44823</v>
       </c>
       <c r="H21" s="1">
@@ -1406,10 +1403,10 @@
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+      <c r="A22" s="4">
         <v>20</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="1">
@@ -1423,10 +1420,10 @@
         <f t="shared" si="1"/>
         <v>399.3</v>
       </c>
-      <c r="F22" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G22" s="7">
+      <c r="F22" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G22" s="6">
         <v>44824</v>
       </c>
       <c r="H22" s="1">
@@ -1448,10 +1445,10 @@
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+      <c r="A23" s="4">
         <v>21</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C23" s="1">
@@ -1465,10 +1462,10 @@
         <f t="shared" si="1"/>
         <v>396.00000000000006</v>
       </c>
-      <c r="F23" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G23" s="7">
+      <c r="F23" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G23" s="6">
         <v>44825</v>
       </c>
       <c r="H23" s="1">
@@ -1490,10 +1487,10 @@
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+      <c r="A24" s="4">
         <v>22</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C24" s="1">
@@ -1507,10 +1504,10 @@
         <f t="shared" si="1"/>
         <v>392.70000000000005</v>
       </c>
-      <c r="F24" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G24" s="7">
+      <c r="F24" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G24" s="6">
         <v>44826</v>
       </c>
       <c r="H24" s="1">
@@ -1532,10 +1529,10 @@
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+      <c r="A25" s="4">
         <v>23</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C25" s="1">
@@ -1549,10 +1546,10 @@
         <f t="shared" si="1"/>
         <v>389.40000000000003</v>
       </c>
-      <c r="F25" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G25" s="7">
+      <c r="F25" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G25" s="6">
         <v>44827</v>
       </c>
       <c r="H25" s="1">
@@ -1574,10 +1571,10 @@
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+      <c r="A26" s="4">
         <v>24</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C26" s="1">
@@ -1591,10 +1588,10 @@
         <f t="shared" si="1"/>
         <v>386.1</v>
       </c>
-      <c r="F26" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G26" s="7">
+      <c r="F26" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G26" s="6">
         <v>44828</v>
       </c>
       <c r="H26" s="1">
@@ -1616,10 +1613,10 @@
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
+      <c r="A27" s="4">
         <v>25</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C27" s="1">
@@ -1633,10 +1630,10 @@
         <f t="shared" si="1"/>
         <v>382.8</v>
       </c>
-      <c r="F27" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G27" s="7">
+      <c r="F27" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G27" s="6">
         <v>44829</v>
       </c>
       <c r="H27" s="1">
@@ -1658,10 +1655,10 @@
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
+      <c r="A28" s="4">
         <v>26</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C28" s="1">
@@ -1675,10 +1672,10 @@
         <f t="shared" si="1"/>
         <v>379.50000000000006</v>
       </c>
-      <c r="F28" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G28" s="7">
+      <c r="F28" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G28" s="6">
         <v>44830</v>
       </c>
       <c r="H28" s="1">
@@ -1700,10 +1697,10 @@
       <c r="M28" s="1"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+      <c r="A29" s="4">
         <v>27</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C29" s="1">
@@ -1717,10 +1714,10 @@
         <f t="shared" si="1"/>
         <v>376.20000000000005</v>
       </c>
-      <c r="F29" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G29" s="7">
+      <c r="F29" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G29" s="6">
         <v>44831</v>
       </c>
       <c r="H29" s="1">
@@ -1742,10 +1739,10 @@
       <c r="M29" s="1"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
+      <c r="A30" s="4">
         <v>28</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="1">
@@ -1759,10 +1756,10 @@
         <f t="shared" si="1"/>
         <v>372.90000000000003</v>
       </c>
-      <c r="F30" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G30" s="7">
+      <c r="F30" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G30" s="6">
         <v>44832</v>
       </c>
       <c r="H30" s="1">
@@ -1784,10 +1781,10 @@
       <c r="M30" s="1"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
+      <c r="A31" s="4">
         <v>29</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C31" s="1">
@@ -1801,10 +1798,10 @@
         <f t="shared" si="1"/>
         <v>369.6</v>
       </c>
-      <c r="F31" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G31" s="7">
+      <c r="F31" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G31" s="6">
         <v>44833</v>
       </c>
       <c r="H31" s="1">
@@ -1826,10 +1823,10 @@
       <c r="M31" s="1"/>
     </row>
     <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
+      <c r="A32" s="4">
         <v>30</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C32" s="1">
@@ -1843,10 +1840,10 @@
         <f t="shared" si="1"/>
         <v>366.3</v>
       </c>
-      <c r="F32" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G32" s="7">
+      <c r="F32" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G32" s="6">
         <v>44834</v>
       </c>
       <c r="H32" s="1">
@@ -1868,10 +1865,10 @@
       <c r="M32" s="1"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
+      <c r="A33" s="4">
         <v>31</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C33" s="1">
@@ -1885,10 +1882,10 @@
         <f t="shared" si="1"/>
         <v>363.00000000000006</v>
       </c>
-      <c r="F33" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G33" s="7">
+      <c r="F33" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G33" s="6">
         <v>44835</v>
       </c>
       <c r="H33" s="1">
@@ -1910,10 +1907,10 @@
       <c r="M33" s="1"/>
     </row>
     <row r="34" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
+      <c r="A34" s="4">
         <v>32</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C34" s="1">
@@ -1927,10 +1924,10 @@
         <f t="shared" si="1"/>
         <v>359.70000000000005</v>
       </c>
-      <c r="F34" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G34" s="7">
+      <c r="F34" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G34" s="6">
         <v>44836</v>
       </c>
       <c r="H34" s="1">
@@ -1952,10 +1949,10 @@
       <c r="M34" s="1"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
+      <c r="A35" s="4">
         <v>33</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C35" s="1">
@@ -1969,10 +1966,10 @@
         <f t="shared" si="1"/>
         <v>178.20000000000002</v>
       </c>
-      <c r="F35" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G35" s="7">
+      <c r="F35" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G35" s="6">
         <v>44837</v>
       </c>
       <c r="H35" s="1">
@@ -1994,11 +1991,11 @@
       <c r="M35" s="1"/>
     </row>
     <row r="36" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
+      <c r="A36" s="4">
         <v>34</v>
       </c>
-      <c r="B36" s="8" t="s">
-        <v>42</v>
+      <c r="B36" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="C36" s="1">
         <v>53.5</v>
@@ -2011,10 +2008,10 @@
         <f t="shared" si="1"/>
         <v>176.55</v>
       </c>
-      <c r="F36" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G36" s="7">
+      <c r="F36" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G36" s="6">
         <v>44838</v>
       </c>
       <c r="H36" s="1">
@@ -2036,11 +2033,11 @@
       <c r="M36" s="1"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
+      <c r="A37" s="4">
         <v>35</v>
       </c>
-      <c r="B37" s="8" t="s">
-        <v>43</v>
+      <c r="B37" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="C37" s="1">
         <v>53</v>
@@ -2053,10 +2050,10 @@
         <f t="shared" si="1"/>
         <v>174.9</v>
       </c>
-      <c r="F37" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G37" s="7">
+      <c r="F37" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G37" s="6">
         <v>44839</v>
       </c>
       <c r="H37" s="1">
@@ -2078,11 +2075,11 @@
       <c r="M37" s="1"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
+      <c r="A38" s="4">
         <v>36</v>
       </c>
-      <c r="B38" s="8" t="s">
-        <v>44</v>
+      <c r="B38" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="C38" s="1">
         <v>52.5</v>
@@ -2095,10 +2092,10 @@
         <f>C38*D32</f>
         <v>346.5</v>
       </c>
-      <c r="F38" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G38" s="7">
+      <c r="F38" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G38" s="6">
         <v>44840</v>
       </c>
       <c r="H38" s="1">
@@ -2120,13 +2117,13 @@
       <c r="M38" s="1"/>
     </row>
     <row r="39" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
+      <c r="A39" s="4"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -2135,9 +2132,9 @@
       <c r="M39" s="1"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="8" t="s">
-        <v>48</v>
+      <c r="A40" s="4"/>
+      <c r="B40" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="C40" s="1">
         <f>ROUNDDOWN(SUM(K3:K371),0.1)</f>
@@ -2145,8 +2142,8 @@
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -2156,8 +2153,8 @@
     </row>
     <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="8" t="s">
-        <v>49</v>
+      <c r="B41" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2176,8 +2173,8 @@
     </row>
     <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="8" t="s">
-        <v>47</v>
+      <c r="B42" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2196,8 +2193,8 @@
     </row>
     <row r="43" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="8" t="s">
-        <v>50</v>
+      <c r="B43" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(J3:J38)</f>

--- a/LR3/table_1_6.xlsx
+++ b/LR3/table_1_6.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27011AF-9429-42CA-A1AE-442DD3478DE6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -160,12 +159,6 @@
     <t>Итого, руб.</t>
   </si>
   <si>
-    <t>Средняя площадь, кв.м.</t>
-  </si>
-  <si>
-    <t>Максимальный срок просрочки, дней</t>
-  </si>
-  <si>
     <t>Максимальная сумма к оплате, руб.</t>
   </si>
   <si>
@@ -173,12 +166,18 @@
   </si>
   <si>
     <t>Общая сумма, руб.</t>
+  </si>
+  <si>
+    <t>Средняя площадь</t>
+  </si>
+  <si>
+    <t>Максимальный срок просрочки</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -502,11 +501,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,7 +549,7 @@
         <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>39</v>
@@ -2100,7 +2099,7 @@
     <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C40" s="4">
         <f>SUM(K3:K38)</f>
@@ -2118,7 +2117,7 @@
     <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2136,7 +2135,7 @@
     <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2154,7 +2153,7 @@
     <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_6.xlsx
+++ b/LR3/table_1_6.xlsx
@@ -168,10 +168,10 @@
     <t>Общая сумма, руб.</t>
   </si>
   <si>
-    <t>Средняя площадь</t>
-  </si>
-  <si>
-    <t>Максимальный срок просрочки</t>
+    <t>Максимальный срок просрочки, дней</t>
+  </si>
+  <si>
+    <t>Средняя площадь, кв.м.</t>
   </si>
 </sst>
 </file>
@@ -504,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2117,7 +2117,7 @@
     <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2135,7 +2135,7 @@
     <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>

--- a/LR3/table_1_6.xlsx
+++ b/LR3/table_1_6.xlsx
@@ -24,9 +24,6 @@
     <t>№ квартиры</t>
   </si>
   <si>
-    <t>Фамилия квартиросъемщика</t>
-  </si>
-  <si>
     <t>Абделазиз</t>
   </si>
   <si>
@@ -159,9 +156,6 @@
     <t>Итого, руб.</t>
   </si>
   <si>
-    <t>Максимальная сумма к оплате, руб.</t>
-  </si>
-  <si>
     <t>Тариф, руб./кв.м.</t>
   </si>
   <si>
@@ -172,13 +166,19 @@
   </si>
   <si>
     <t>Средняя площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>Фамилия квартиросъёмщика</t>
+  </si>
+  <si>
+    <t>Максимальная сумма просрочки, руб.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +192,11 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="2">
@@ -214,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -222,6 +227,9 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -504,7 +512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
@@ -543,34 +551,34 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -578,7 +586,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -619,7 +627,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1">
         <f>C3-0.5</f>
@@ -661,7 +669,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C38" si="6">C4-0.5</f>
@@ -703,7 +711,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="6"/>
@@ -745,7 +753,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="6"/>
@@ -787,7 +795,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="6"/>
@@ -829,7 +837,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="6"/>
@@ -871,7 +879,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="6"/>
@@ -913,7 +921,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="6"/>
@@ -955,7 +963,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="6"/>
@@ -997,7 +1005,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="6"/>
@@ -1039,7 +1047,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="6"/>
@@ -1081,7 +1089,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="6"/>
@@ -1123,7 +1131,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="6"/>
@@ -1165,7 +1173,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="6"/>
@@ -1207,7 +1215,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="6"/>
@@ -1249,7 +1257,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="6"/>
@@ -1291,7 +1299,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="6"/>
@@ -1333,7 +1341,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="6"/>
@@ -1375,7 +1383,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="6"/>
@@ -1417,7 +1425,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="6"/>
@@ -1459,7 +1467,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="6"/>
@@ -1501,7 +1509,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="6"/>
@@ -1543,7 +1551,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="6"/>
@@ -1585,7 +1593,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="6"/>
@@ -1627,7 +1635,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="6"/>
@@ -1669,7 +1677,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="6"/>
@@ -1711,7 +1719,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="6"/>
@@ -1753,7 +1761,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="6"/>
@@ -1795,7 +1803,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="6"/>
@@ -1837,7 +1845,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="6"/>
@@ -1879,7 +1887,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="6"/>
@@ -1921,7 +1929,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="6"/>
@@ -1963,7 +1971,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="6"/>
@@ -2005,7 +2013,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="6"/>
@@ -2047,7 +2055,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="6"/>
@@ -2098,8 +2106,8 @@
     </row>
     <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="1" t="s">
-        <v>48</v>
+      <c r="B40" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="C40" s="4">
         <f>SUM(K3:K38)</f>
@@ -2116,8 +2124,8 @@
     </row>
     <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="1" t="s">
-        <v>50</v>
+      <c r="B41" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2134,8 +2142,8 @@
     </row>
     <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="1" t="s">
-        <v>49</v>
+      <c r="B42" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2152,8 +2160,8 @@
     </row>
     <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="1" t="s">
-        <v>46</v>
+      <c r="B43" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_6.xlsx
+++ b/LR3/table_1_6.xlsx
@@ -225,9 +225,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -512,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,1534 +563,1534 @@
       <c r="D2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>70</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <f>$A$1*1.1</f>
         <v>6.6000000000000005</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <f>C3*D3</f>
         <v>462.00000000000006</v>
       </c>
-      <c r="F3" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G3" s="3">
+      <c r="F3" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G3" s="4">
         <v>44805</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="2">
         <f>IF(G3-F3&lt;0,0,G3-F3)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="1">
-        <v>10</v>
-      </c>
-      <c r="J3" s="1">
+      <c r="I3" s="2">
+        <v>10</v>
+      </c>
+      <c r="J3" s="2">
         <f>I3*H3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="2">
         <f>J3+E3</f>
         <v>462.00000000000006</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <f>C3-0.5</f>
         <v>69.5</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <f t="shared" ref="D4:D34" si="0">$A$1*1.1</f>
         <v>6.6000000000000005</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <f t="shared" ref="E4:E38" si="1">C4*D4</f>
         <v>458.70000000000005</v>
       </c>
-      <c r="F4" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G4" s="3">
+      <c r="F4" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G4" s="4">
         <v>44806</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="2">
         <f t="shared" ref="H4:H38" si="2">IF(G4-F4&lt;0,0,G4-F4)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="1">
-        <v>10</v>
-      </c>
-      <c r="J4" s="1">
+      <c r="I4" s="2">
+        <v>10</v>
+      </c>
+      <c r="J4" s="2">
         <f t="shared" ref="J4:J38" si="3">I4*H4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="2">
         <f t="shared" ref="K4:K38" si="4">J4+E4</f>
         <v>458.70000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <f t="shared" ref="A5:A38" si="5">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <f t="shared" ref="C5:C38" si="6">C4-0.5</f>
         <v>69</v>
       </c>
-      <c r="D5" s="1">
-        <f t="shared" si="0"/>
-        <v>6.6000000000000005</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="E5" s="2">
         <f t="shared" si="1"/>
         <v>455.40000000000003</v>
       </c>
-      <c r="F5" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G5" s="3">
+      <c r="F5" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G5" s="4">
         <v>44807</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I5" s="1">
-        <v>10</v>
-      </c>
-      <c r="J5" s="1">
+      <c r="I5" s="2">
+        <v>10</v>
+      </c>
+      <c r="J5" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="2">
         <f t="shared" si="4"/>
         <v>455.40000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <f t="shared" si="6"/>
         <v>68.5</v>
       </c>
-      <c r="D6" s="1">
-        <f t="shared" si="0"/>
-        <v>6.6000000000000005</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="E6" s="2">
         <f t="shared" si="1"/>
         <v>452.1</v>
       </c>
-      <c r="F6" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="F6" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G6" s="4">
         <v>44808</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I6" s="1">
-        <v>10</v>
-      </c>
-      <c r="J6" s="1">
+      <c r="I6" s="2">
+        <v>10</v>
+      </c>
+      <c r="J6" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="2">
         <f t="shared" si="4"/>
         <v>452.1</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <f t="shared" si="6"/>
         <v>68</v>
       </c>
-      <c r="D7" s="1">
-        <f t="shared" si="0"/>
-        <v>6.6000000000000005</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="E7" s="2">
         <f t="shared" si="1"/>
         <v>448.8</v>
       </c>
-      <c r="F7" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G7" s="3">
+      <c r="F7" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G7" s="4">
         <v>44809</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I7" s="1">
-        <v>10</v>
-      </c>
-      <c r="J7" s="1">
+      <c r="I7" s="2">
+        <v>10</v>
+      </c>
+      <c r="J7" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="2">
         <f t="shared" si="4"/>
         <v>448.8</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <f t="shared" si="6"/>
         <v>67.5</v>
       </c>
-      <c r="D8" s="1">
-        <f t="shared" si="0"/>
-        <v>6.6000000000000005</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="E8" s="2">
         <f t="shared" si="1"/>
         <v>445.50000000000006</v>
       </c>
-      <c r="F8" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="F8" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G8" s="4">
         <v>44810</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I8" s="1">
-        <v>10</v>
-      </c>
-      <c r="J8" s="1">
+      <c r="I8" s="2">
+        <v>10</v>
+      </c>
+      <c r="J8" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="2">
         <f t="shared" si="4"/>
         <v>445.50000000000006</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <f t="shared" si="6"/>
         <v>67</v>
       </c>
-      <c r="D9" s="1">
-        <f t="shared" si="0"/>
-        <v>6.6000000000000005</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="E9" s="2">
         <f t="shared" si="1"/>
         <v>442.20000000000005</v>
       </c>
-      <c r="F9" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="F9" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G9" s="4">
         <v>44811</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I9" s="1">
-        <v>10</v>
-      </c>
-      <c r="J9" s="1">
+      <c r="I9" s="2">
+        <v>10</v>
+      </c>
+      <c r="J9" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="2">
         <f t="shared" si="4"/>
         <v>442.20000000000005</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <f t="shared" si="6"/>
         <v>66.5</v>
       </c>
-      <c r="D10" s="1">
-        <f t="shared" si="0"/>
-        <v>6.6000000000000005</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="E10" s="2">
         <f t="shared" si="1"/>
         <v>438.90000000000003</v>
       </c>
-      <c r="F10" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="F10" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G10" s="4">
         <v>44812</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I10" s="1">
-        <v>10</v>
-      </c>
-      <c r="J10" s="1">
+      <c r="I10" s="2">
+        <v>10</v>
+      </c>
+      <c r="J10" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="2">
         <f t="shared" si="4"/>
         <v>438.90000000000003</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <f t="shared" si="6"/>
         <v>66</v>
       </c>
-      <c r="D11" s="1">
-        <f t="shared" si="0"/>
-        <v>6.6000000000000005</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="E11" s="2">
         <f t="shared" si="1"/>
         <v>435.6</v>
       </c>
-      <c r="F11" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G11" s="3">
-        <v>44813</v>
-      </c>
-      <c r="H11" s="1">
+      <c r="F11" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G11" s="4">
+        <v>44813</v>
+      </c>
+      <c r="H11" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I11" s="1">
-        <v>10</v>
-      </c>
-      <c r="J11" s="1">
+      <c r="I11" s="2">
+        <v>10</v>
+      </c>
+      <c r="J11" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="2">
         <f t="shared" si="4"/>
         <v>435.6</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="A12" s="2">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2">
         <f t="shared" si="6"/>
         <v>65.5</v>
       </c>
-      <c r="D12" s="1">
-        <f t="shared" si="0"/>
-        <v>6.6000000000000005</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="E12" s="2">
         <f t="shared" si="1"/>
         <v>432.3</v>
       </c>
-      <c r="F12" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="F12" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G12" s="4">
         <v>44814</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="2">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I12" s="1">
-        <v>10</v>
-      </c>
-      <c r="J12" s="1">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="K12" s="1">
+      <c r="I12" s="2">
+        <v>10</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="K12" s="2">
         <f t="shared" si="4"/>
         <v>442.3</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <f t="shared" si="6"/>
         <v>65</v>
       </c>
-      <c r="D13" s="1">
-        <f t="shared" si="0"/>
-        <v>6.6000000000000005</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="E13" s="2">
         <f t="shared" si="1"/>
         <v>429.00000000000006</v>
       </c>
-      <c r="F13" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G13" s="3">
+      <c r="F13" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G13" s="4">
         <v>44815</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="2">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="I13" s="1">
-        <v>10</v>
-      </c>
-      <c r="J13" s="1">
+      <c r="I13" s="2">
+        <v>10</v>
+      </c>
+      <c r="J13" s="2">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="2">
         <f t="shared" si="4"/>
         <v>449.00000000000006</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="2">
         <f t="shared" si="6"/>
         <v>64.5</v>
       </c>
-      <c r="D14" s="1">
-        <f t="shared" si="0"/>
-        <v>6.6000000000000005</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="D14" s="2">
+        <f t="shared" si="0"/>
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="E14" s="2">
         <f t="shared" si="1"/>
         <v>425.70000000000005</v>
       </c>
-      <c r="F14" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="F14" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G14" s="4">
         <v>44816</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="2">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="I14" s="1">
-        <v>10</v>
-      </c>
-      <c r="J14" s="1">
+      <c r="I14" s="2">
+        <v>10</v>
+      </c>
+      <c r="J14" s="2">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="2">
         <f t="shared" si="4"/>
         <v>455.70000000000005</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="2">
         <f t="shared" si="6"/>
         <v>64</v>
       </c>
-      <c r="D15" s="1">
-        <f t="shared" si="0"/>
-        <v>6.6000000000000005</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="D15" s="2">
+        <f t="shared" si="0"/>
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="E15" s="2">
         <f t="shared" si="1"/>
         <v>422.40000000000003</v>
       </c>
-      <c r="F15" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="F15" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G15" s="4">
         <v>44817</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="2">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="I15" s="1">
-        <v>10</v>
-      </c>
-      <c r="J15" s="1">
+      <c r="I15" s="2">
+        <v>10</v>
+      </c>
+      <c r="J15" s="2">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="2">
         <f t="shared" si="4"/>
         <v>462.40000000000003</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="2">
         <f t="shared" si="6"/>
         <v>63.5</v>
       </c>
-      <c r="D16" s="1">
-        <f t="shared" si="0"/>
-        <v>6.6000000000000005</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="E16" s="2">
         <f t="shared" si="1"/>
         <v>419.1</v>
       </c>
-      <c r="F16" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G16" s="3">
+      <c r="F16" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G16" s="4">
         <v>44818</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="2">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="I16" s="1">
-        <v>10</v>
-      </c>
-      <c r="J16" s="1">
+      <c r="I16" s="2">
+        <v>10</v>
+      </c>
+      <c r="J16" s="2">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="2">
         <f t="shared" si="4"/>
         <v>469.1</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="2">
         <f t="shared" si="6"/>
         <v>63</v>
       </c>
-      <c r="D17" s="1">
-        <f t="shared" si="0"/>
-        <v>6.6000000000000005</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="D17" s="2">
+        <f t="shared" si="0"/>
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="E17" s="2">
         <f t="shared" si="1"/>
         <v>415.8</v>
       </c>
-      <c r="F17" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="F17" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G17" s="4">
         <v>44819</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="2">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="I17" s="1">
-        <v>10</v>
-      </c>
-      <c r="J17" s="1">
+      <c r="I17" s="2">
+        <v>10</v>
+      </c>
+      <c r="J17" s="2">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="2">
         <f t="shared" si="4"/>
         <v>475.8</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="2">
         <f t="shared" si="6"/>
         <v>62.5</v>
       </c>
-      <c r="D18" s="1">
-        <f t="shared" si="0"/>
-        <v>6.6000000000000005</v>
-      </c>
-      <c r="E18" s="1">
+      <c r="D18" s="2">
+        <f t="shared" si="0"/>
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="E18" s="2">
         <f t="shared" si="1"/>
         <v>412.50000000000006</v>
       </c>
-      <c r="F18" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="F18" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G18" s="4">
         <v>44820</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="2">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="I18" s="1">
-        <v>10</v>
-      </c>
-      <c r="J18" s="1">
+      <c r="I18" s="2">
+        <v>10</v>
+      </c>
+      <c r="J18" s="2">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="2">
         <f t="shared" si="4"/>
         <v>482.50000000000006</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="2">
         <f t="shared" si="6"/>
         <v>62</v>
       </c>
-      <c r="D19" s="1">
-        <f t="shared" si="0"/>
-        <v>6.6000000000000005</v>
-      </c>
-      <c r="E19" s="1">
+      <c r="D19" s="2">
+        <f t="shared" si="0"/>
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="E19" s="2">
         <f t="shared" si="1"/>
         <v>409.20000000000005</v>
       </c>
-      <c r="F19" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G19" s="3">
+      <c r="F19" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G19" s="4">
         <v>44821</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="2">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="I19" s="1">
-        <v>10</v>
-      </c>
-      <c r="J19" s="1">
+      <c r="I19" s="2">
+        <v>10</v>
+      </c>
+      <c r="J19" s="2">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="2">
         <f t="shared" si="4"/>
         <v>489.20000000000005</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="2">
         <f t="shared" si="6"/>
         <v>61.5</v>
       </c>
-      <c r="D20" s="1">
-        <f t="shared" si="0"/>
-        <v>6.6000000000000005</v>
-      </c>
-      <c r="E20" s="1">
+      <c r="D20" s="2">
+        <f t="shared" si="0"/>
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="E20" s="2">
         <f t="shared" si="1"/>
         <v>405.90000000000003</v>
       </c>
-      <c r="F20" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="F20" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G20" s="4">
         <v>44822</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="2">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="I20" s="1">
-        <v>10</v>
-      </c>
-      <c r="J20" s="1">
+      <c r="I20" s="2">
+        <v>10</v>
+      </c>
+      <c r="J20" s="2">
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="2">
         <f t="shared" si="4"/>
         <v>495.90000000000003</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="2">
         <f t="shared" si="6"/>
         <v>61</v>
       </c>
-      <c r="D21" s="1">
-        <f t="shared" si="0"/>
-        <v>6.6000000000000005</v>
-      </c>
-      <c r="E21" s="1">
+      <c r="D21" s="2">
+        <f t="shared" si="0"/>
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="E21" s="2">
         <f t="shared" si="1"/>
         <v>402.6</v>
       </c>
-      <c r="F21" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="F21" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G21" s="4">
         <v>44823</v>
       </c>
-      <c r="H21" s="1">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="I21" s="1">
-        <v>10</v>
-      </c>
-      <c r="J21" s="1">
+      <c r="H21" s="2">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="I21" s="2">
+        <v>10</v>
+      </c>
+      <c r="J21" s="2">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="2">
         <f t="shared" si="4"/>
         <v>502.6</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="2">
         <f t="shared" si="6"/>
         <v>60.5</v>
       </c>
-      <c r="D22" s="1">
-        <f t="shared" si="0"/>
-        <v>6.6000000000000005</v>
-      </c>
-      <c r="E22" s="1">
+      <c r="D22" s="2">
+        <f t="shared" si="0"/>
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="E22" s="2">
         <f t="shared" si="1"/>
         <v>399.3</v>
       </c>
-      <c r="F22" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="F22" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G22" s="4">
         <v>44824</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="2">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="I22" s="1">
-        <v>10</v>
-      </c>
-      <c r="J22" s="1">
+      <c r="I22" s="2">
+        <v>10</v>
+      </c>
+      <c r="J22" s="2">
         <f t="shared" si="3"/>
         <v>110</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="2">
         <f t="shared" si="4"/>
         <v>509.3</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="2">
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="D23" s="1">
-        <f t="shared" si="0"/>
-        <v>6.6000000000000005</v>
-      </c>
-      <c r="E23" s="1">
+      <c r="D23" s="2">
+        <f t="shared" si="0"/>
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="E23" s="2">
         <f t="shared" si="1"/>
         <v>396.00000000000006</v>
       </c>
-      <c r="F23" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="F23" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G23" s="4">
         <v>44825</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="2">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="I23" s="1">
-        <v>10</v>
-      </c>
-      <c r="J23" s="1">
+      <c r="I23" s="2">
+        <v>10</v>
+      </c>
+      <c r="J23" s="2">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="2">
         <f t="shared" si="4"/>
         <v>516</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="2">
         <f t="shared" si="6"/>
         <v>59.5</v>
       </c>
-      <c r="D24" s="1">
-        <f t="shared" si="0"/>
-        <v>6.6000000000000005</v>
-      </c>
-      <c r="E24" s="1">
+      <c r="D24" s="2">
+        <f t="shared" si="0"/>
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="E24" s="2">
         <f t="shared" si="1"/>
         <v>392.70000000000005</v>
       </c>
-      <c r="F24" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="F24" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G24" s="4">
         <v>44826</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="2">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="I24" s="1">
-        <v>10</v>
-      </c>
-      <c r="J24" s="1">
+      <c r="I24" s="2">
+        <v>10</v>
+      </c>
+      <c r="J24" s="2">
         <f t="shared" si="3"/>
         <v>130</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="2">
         <f t="shared" si="4"/>
         <v>522.70000000000005</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <f t="shared" si="5"/>
         <v>23</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="2">
         <f t="shared" si="6"/>
         <v>59</v>
       </c>
-      <c r="D25" s="1">
-        <f t="shared" si="0"/>
-        <v>6.6000000000000005</v>
-      </c>
-      <c r="E25" s="1">
+      <c r="D25" s="2">
+        <f t="shared" si="0"/>
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="E25" s="2">
         <f t="shared" si="1"/>
         <v>389.40000000000003</v>
       </c>
-      <c r="F25" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G25" s="3">
+      <c r="F25" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G25" s="4">
         <v>44827</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="2">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="I25" s="1">
-        <v>10</v>
-      </c>
-      <c r="J25" s="1">
+      <c r="I25" s="2">
+        <v>10</v>
+      </c>
+      <c r="J25" s="2">
         <f t="shared" si="3"/>
         <v>140</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25" s="2">
         <f t="shared" si="4"/>
         <v>529.40000000000009</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="A26" s="2">
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="2">
         <f t="shared" si="6"/>
         <v>58.5</v>
       </c>
-      <c r="D26" s="1">
-        <f t="shared" si="0"/>
-        <v>6.6000000000000005</v>
-      </c>
-      <c r="E26" s="1">
+      <c r="D26" s="2">
+        <f t="shared" si="0"/>
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="E26" s="2">
         <f t="shared" si="1"/>
         <v>386.1</v>
       </c>
-      <c r="F26" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="F26" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G26" s="4">
         <v>44828</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="2">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="I26" s="1">
-        <v>10</v>
-      </c>
-      <c r="J26" s="1">
+      <c r="I26" s="2">
+        <v>10</v>
+      </c>
+      <c r="J26" s="2">
         <f t="shared" si="3"/>
         <v>150</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26" s="2">
         <f t="shared" si="4"/>
         <v>536.1</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="A27" s="2">
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="2">
         <f t="shared" si="6"/>
         <v>58</v>
       </c>
-      <c r="D27" s="1">
-        <f t="shared" si="0"/>
-        <v>6.6000000000000005</v>
-      </c>
-      <c r="E27" s="1">
+      <c r="D27" s="2">
+        <f t="shared" si="0"/>
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="E27" s="2">
         <f t="shared" si="1"/>
         <v>382.8</v>
       </c>
-      <c r="F27" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="F27" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G27" s="4">
         <v>44829</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="2">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="I27" s="1">
-        <v>10</v>
-      </c>
-      <c r="J27" s="1">
+      <c r="I27" s="2">
+        <v>10</v>
+      </c>
+      <c r="J27" s="2">
         <f t="shared" si="3"/>
         <v>160</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27" s="2">
         <f t="shared" si="4"/>
         <v>542.79999999999995</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="A28" s="2">
         <f t="shared" si="5"/>
         <v>26</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="2">
         <f t="shared" si="6"/>
         <v>57.5</v>
       </c>
-      <c r="D28" s="1">
-        <f t="shared" si="0"/>
-        <v>6.6000000000000005</v>
-      </c>
-      <c r="E28" s="1">
+      <c r="D28" s="2">
+        <f t="shared" si="0"/>
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="E28" s="2">
         <f t="shared" si="1"/>
         <v>379.50000000000006</v>
       </c>
-      <c r="F28" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G28" s="3">
+      <c r="F28" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G28" s="4">
         <v>44830</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28" s="2">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="I28" s="1">
-        <v>10</v>
-      </c>
-      <c r="J28" s="1">
+      <c r="I28" s="2">
+        <v>10</v>
+      </c>
+      <c r="J28" s="2">
         <f t="shared" si="3"/>
         <v>170</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28" s="2">
         <f t="shared" si="4"/>
         <v>549.5</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+      <c r="A29" s="2">
         <f t="shared" si="5"/>
         <v>27</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="2">
         <f t="shared" si="6"/>
         <v>57</v>
       </c>
-      <c r="D29" s="1">
-        <f t="shared" si="0"/>
-        <v>6.6000000000000005</v>
-      </c>
-      <c r="E29" s="1">
+      <c r="D29" s="2">
+        <f t="shared" si="0"/>
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="E29" s="2">
         <f t="shared" si="1"/>
         <v>376.20000000000005</v>
       </c>
-      <c r="F29" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G29" s="3">
+      <c r="F29" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G29" s="4">
         <v>44831</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29" s="2">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="I29" s="1">
-        <v>10</v>
-      </c>
-      <c r="J29" s="1">
+      <c r="I29" s="2">
+        <v>10</v>
+      </c>
+      <c r="J29" s="2">
         <f t="shared" si="3"/>
         <v>180</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29" s="2">
         <f t="shared" si="4"/>
         <v>556.20000000000005</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="A30" s="2">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="2">
         <f t="shared" si="6"/>
         <v>56.5</v>
       </c>
-      <c r="D30" s="1">
-        <f t="shared" si="0"/>
-        <v>6.6000000000000005</v>
-      </c>
-      <c r="E30" s="1">
+      <c r="D30" s="2">
+        <f t="shared" si="0"/>
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="E30" s="2">
         <f t="shared" si="1"/>
         <v>372.90000000000003</v>
       </c>
-      <c r="F30" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G30" s="3">
+      <c r="F30" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G30" s="4">
         <v>44832</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30" s="2">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="I30" s="1">
-        <v>10</v>
-      </c>
-      <c r="J30" s="1">
+      <c r="I30" s="2">
+        <v>10</v>
+      </c>
+      <c r="J30" s="2">
         <f t="shared" si="3"/>
         <v>190</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" s="2">
         <f t="shared" si="4"/>
         <v>562.90000000000009</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+      <c r="A31" s="2">
         <f t="shared" si="5"/>
         <v>29</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="2">
         <f t="shared" si="6"/>
         <v>56</v>
       </c>
-      <c r="D31" s="1">
-        <f t="shared" si="0"/>
-        <v>6.6000000000000005</v>
-      </c>
-      <c r="E31" s="1">
+      <c r="D31" s="2">
+        <f t="shared" si="0"/>
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="E31" s="2">
         <f t="shared" si="1"/>
         <v>369.6</v>
       </c>
-      <c r="F31" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G31" s="3">
+      <c r="F31" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G31" s="4">
         <v>44833</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31" s="2">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="I31" s="1">
-        <v>10</v>
-      </c>
-      <c r="J31" s="1">
+      <c r="I31" s="2">
+        <v>10</v>
+      </c>
+      <c r="J31" s="2">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31" s="2">
         <f t="shared" si="4"/>
         <v>569.6</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="A32" s="2">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="2">
         <f t="shared" si="6"/>
         <v>55.5</v>
       </c>
-      <c r="D32" s="1">
-        <f t="shared" si="0"/>
-        <v>6.6000000000000005</v>
-      </c>
-      <c r="E32" s="1">
+      <c r="D32" s="2">
+        <f t="shared" si="0"/>
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="E32" s="2">
         <f t="shared" si="1"/>
         <v>366.3</v>
       </c>
-      <c r="F32" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="F32" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G32" s="4">
         <v>44834</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32" s="2">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="I32" s="1">
-        <v>10</v>
-      </c>
-      <c r="J32" s="1">
+      <c r="I32" s="2">
+        <v>10</v>
+      </c>
+      <c r="J32" s="2">
         <f t="shared" si="3"/>
         <v>210</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32" s="2">
         <f t="shared" si="4"/>
         <v>576.29999999999995</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+      <c r="A33" s="2">
         <f t="shared" si="5"/>
         <v>31</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="2">
         <f t="shared" si="6"/>
         <v>55</v>
       </c>
-      <c r="D33" s="1">
-        <f t="shared" si="0"/>
-        <v>6.6000000000000005</v>
-      </c>
-      <c r="E33" s="1">
+      <c r="D33" s="2">
+        <f t="shared" si="0"/>
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="E33" s="2">
         <f t="shared" si="1"/>
         <v>363.00000000000006</v>
       </c>
-      <c r="F33" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="F33" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G33" s="4">
         <v>44835</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H33" s="2">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="I33" s="1">
-        <v>10</v>
-      </c>
-      <c r="J33" s="1">
+      <c r="I33" s="2">
+        <v>10</v>
+      </c>
+      <c r="J33" s="2">
         <f t="shared" si="3"/>
         <v>220</v>
       </c>
-      <c r="K33" s="1">
+      <c r="K33" s="2">
         <f t="shared" si="4"/>
         <v>583</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="A34" s="2">
         <f t="shared" si="5"/>
         <v>32</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="2">
         <f t="shared" si="6"/>
         <v>54.5</v>
       </c>
-      <c r="D34" s="1">
-        <f t="shared" si="0"/>
-        <v>6.6000000000000005</v>
-      </c>
-      <c r="E34" s="1">
+      <c r="D34" s="2">
+        <f t="shared" si="0"/>
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="E34" s="2">
         <f t="shared" si="1"/>
         <v>359.70000000000005</v>
       </c>
-      <c r="F34" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G34" s="3">
+      <c r="F34" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G34" s="4">
         <v>44836</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34" s="2">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="I34" s="1">
-        <v>10</v>
-      </c>
-      <c r="J34" s="1">
+      <c r="I34" s="2">
+        <v>10</v>
+      </c>
+      <c r="J34" s="2">
         <f t="shared" si="3"/>
         <v>230</v>
       </c>
-      <c r="K34" s="1">
+      <c r="K34" s="2">
         <f t="shared" si="4"/>
         <v>589.70000000000005</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+      <c r="A35" s="2">
         <f t="shared" si="5"/>
         <v>33</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="2">
         <f t="shared" si="6"/>
         <v>54</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="2">
         <f>$A$1*1.1/2</f>
         <v>3.3000000000000003</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="2">
         <f t="shared" si="1"/>
         <v>178.20000000000002</v>
       </c>
-      <c r="F35" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="F35" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G35" s="4">
         <v>44837</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35" s="2">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="I35" s="1">
-        <v>10</v>
-      </c>
-      <c r="J35" s="1">
+      <c r="I35" s="2">
+        <v>10</v>
+      </c>
+      <c r="J35" s="2">
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="K35" s="1">
+      <c r="K35" s="2">
         <f t="shared" si="4"/>
         <v>418.20000000000005</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+      <c r="A36" s="2">
         <f t="shared" si="5"/>
         <v>34</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="2">
         <f t="shared" si="6"/>
         <v>53.5</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="2">
         <f t="shared" ref="D36:D38" si="7">$A$1*1.1/2</f>
         <v>3.3000000000000003</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="2">
         <f t="shared" si="1"/>
         <v>176.55</v>
       </c>
-      <c r="F36" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G36" s="3">
+      <c r="F36" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G36" s="4">
         <v>44838</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H36" s="2">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="I36" s="1">
-        <v>10</v>
-      </c>
-      <c r="J36" s="1">
+      <c r="I36" s="2">
+        <v>10</v>
+      </c>
+      <c r="J36" s="2">
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
-      <c r="K36" s="1">
+      <c r="K36" s="2">
         <f t="shared" si="4"/>
         <v>426.55</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+      <c r="A37" s="2">
         <f t="shared" si="5"/>
         <v>35</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="2">
         <f t="shared" si="6"/>
         <v>53</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="2">
         <f t="shared" si="7"/>
         <v>3.3000000000000003</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="2">
         <f t="shared" si="1"/>
         <v>174.9</v>
       </c>
-      <c r="F37" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G37" s="3">
+      <c r="F37" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G37" s="4">
         <v>44839</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H37" s="2">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="I37" s="1">
-        <v>10</v>
-      </c>
-      <c r="J37" s="1">
+      <c r="I37" s="2">
+        <v>10</v>
+      </c>
+      <c r="J37" s="2">
         <f t="shared" si="3"/>
         <v>260</v>
       </c>
-      <c r="K37" s="1">
+      <c r="K37" s="2">
         <f t="shared" si="4"/>
         <v>434.9</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+      <c r="A38" s="2">
         <f t="shared" si="5"/>
         <v>36</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="2">
         <f t="shared" si="6"/>
         <v>52.5</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="2">
         <f t="shared" si="7"/>
         <v>3.3000000000000003</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="2">
         <f t="shared" si="1"/>
         <v>173.25</v>
       </c>
-      <c r="F38" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G38" s="3">
+      <c r="F38" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G38" s="4">
         <v>44840</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H38" s="2">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="I38" s="1">
-        <v>10</v>
-      </c>
-      <c r="J38" s="1">
+      <c r="I38" s="2">
+        <v>10</v>
+      </c>
+      <c r="J38" s="2">
         <f t="shared" si="3"/>
         <v>270</v>
       </c>
-      <c r="K38" s="1">
+      <c r="K38" s="2">
         <f t="shared" si="4"/>
         <v>443.25</v>
       </c>
@@ -2106,10 +2110,10 @@
     </row>
     <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="5">
         <f>SUM(K3:K38)</f>
         <v>17630.100000000002</v>
       </c>
@@ -2124,10 +2128,10 @@
     </row>
     <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="2">
         <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
@@ -2142,10 +2146,10 @@
     </row>
     <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="2">
         <f>MAX(H3:H38)</f>
         <v>27</v>
       </c>
@@ -2160,10 +2164,10 @@
     </row>
     <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="2">
         <f>MAX(K3:K38)</f>
         <v>589.70000000000005</v>
       </c>

--- a/LR3/table_1_6.xlsx
+++ b/LR3/table_1_6.xlsx
@@ -171,7 +171,7 @@
     <t>Фамилия квартиросъёмщика</t>
   </si>
   <si>
-    <t>Максимальная сумма просрочки, руб.</t>
+    <t>Максимальная сумма к оплате, руб.</t>
   </si>
 </sst>
 </file>
@@ -516,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="B34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/LR3/table_1_6.xlsx
+++ b/LR3/table_1_6.xlsx
@@ -516,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,7 +621,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="2">
-        <f>J3+E3</f>
+        <f>E3+J3</f>
         <v>462.00000000000006</v>
       </c>
     </row>
@@ -646,9 +646,11 @@
         <v>458.70000000000005</v>
       </c>
       <c r="F4" s="4">
+        <f>$F$3</f>
         <v>44813</v>
       </c>
       <c r="G4" s="4">
+        <f>G3+1</f>
         <v>44806</v>
       </c>
       <c r="H4" s="2">
@@ -656,6 +658,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="2">
+        <f>$I$3</f>
         <v>10</v>
       </c>
       <c r="J4" s="2">
@@ -663,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" ref="K4:K38" si="4">J4+E4</f>
+        <f t="shared" ref="K4:K38" si="4">E4+J4</f>
         <v>458.70000000000005</v>
       </c>
     </row>
@@ -688,9 +691,11 @@
         <v>455.40000000000003</v>
       </c>
       <c r="F5" s="4">
+        <f t="shared" ref="F5:F38" si="7">$F$3</f>
         <v>44813</v>
       </c>
       <c r="G5" s="4">
+        <f t="shared" ref="G5:G38" si="8">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="2">
@@ -698,6 +703,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="2">
+        <f t="shared" ref="I5:I38" si="9">$I$3</f>
         <v>10</v>
       </c>
       <c r="J5" s="2">
@@ -730,9 +736,11 @@
         <v>452.1</v>
       </c>
       <c r="F6" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G6" s="4">
+        <f t="shared" si="8"/>
         <v>44808</v>
       </c>
       <c r="H6" s="2">
@@ -740,6 +748,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="2">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J6" s="2">
@@ -772,9 +781,11 @@
         <v>448.8</v>
       </c>
       <c r="F7" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G7" s="4">
+        <f t="shared" si="8"/>
         <v>44809</v>
       </c>
       <c r="H7" s="2">
@@ -782,6 +793,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="2">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J7" s="2">
@@ -814,9 +826,11 @@
         <v>445.50000000000006</v>
       </c>
       <c r="F8" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G8" s="4">
+        <f t="shared" si="8"/>
         <v>44810</v>
       </c>
       <c r="H8" s="2">
@@ -824,6 +838,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="2">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J8" s="2">
@@ -856,9 +871,11 @@
         <v>442.20000000000005</v>
       </c>
       <c r="F9" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G9" s="4">
+        <f t="shared" si="8"/>
         <v>44811</v>
       </c>
       <c r="H9" s="2">
@@ -866,6 +883,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="2">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J9" s="2">
@@ -898,9 +916,11 @@
         <v>438.90000000000003</v>
       </c>
       <c r="F10" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G10" s="4">
+        <f t="shared" si="8"/>
         <v>44812</v>
       </c>
       <c r="H10" s="2">
@@ -908,6 +928,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="2">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J10" s="2">
@@ -940,9 +961,11 @@
         <v>435.6</v>
       </c>
       <c r="F11" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G11" s="4">
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="H11" s="2">
@@ -950,6 +973,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="2">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J11" s="2">
@@ -982,9 +1006,11 @@
         <v>432.3</v>
       </c>
       <c r="F12" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G12" s="4">
+        <f t="shared" si="8"/>
         <v>44814</v>
       </c>
       <c r="H12" s="2">
@@ -992,6 +1018,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="2">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J12" s="2">
@@ -1024,9 +1051,11 @@
         <v>429.00000000000006</v>
       </c>
       <c r="F13" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G13" s="4">
+        <f t="shared" si="8"/>
         <v>44815</v>
       </c>
       <c r="H13" s="2">
@@ -1034,6 +1063,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="2">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J13" s="2">
@@ -1066,9 +1096,11 @@
         <v>425.70000000000005</v>
       </c>
       <c r="F14" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G14" s="4">
+        <f t="shared" si="8"/>
         <v>44816</v>
       </c>
       <c r="H14" s="2">
@@ -1076,6 +1108,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="2">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J14" s="2">
@@ -1108,9 +1141,11 @@
         <v>422.40000000000003</v>
       </c>
       <c r="F15" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G15" s="4">
+        <f t="shared" si="8"/>
         <v>44817</v>
       </c>
       <c r="H15" s="2">
@@ -1118,6 +1153,7 @@
         <v>4</v>
       </c>
       <c r="I15" s="2">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J15" s="2">
@@ -1150,9 +1186,11 @@
         <v>419.1</v>
       </c>
       <c r="F16" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G16" s="4">
+        <f t="shared" si="8"/>
         <v>44818</v>
       </c>
       <c r="H16" s="2">
@@ -1160,6 +1198,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="2">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J16" s="2">
@@ -1192,9 +1231,11 @@
         <v>415.8</v>
       </c>
       <c r="F17" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G17" s="4">
+        <f t="shared" si="8"/>
         <v>44819</v>
       </c>
       <c r="H17" s="2">
@@ -1202,6 +1243,7 @@
         <v>6</v>
       </c>
       <c r="I17" s="2">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J17" s="2">
@@ -1234,9 +1276,11 @@
         <v>412.50000000000006</v>
       </c>
       <c r="F18" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G18" s="4">
+        <f t="shared" si="8"/>
         <v>44820</v>
       </c>
       <c r="H18" s="2">
@@ -1244,6 +1288,7 @@
         <v>7</v>
       </c>
       <c r="I18" s="2">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J18" s="2">
@@ -1276,9 +1321,11 @@
         <v>409.20000000000005</v>
       </c>
       <c r="F19" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G19" s="4">
+        <f t="shared" si="8"/>
         <v>44821</v>
       </c>
       <c r="H19" s="2">
@@ -1286,6 +1333,7 @@
         <v>8</v>
       </c>
       <c r="I19" s="2">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J19" s="2">
@@ -1318,9 +1366,11 @@
         <v>405.90000000000003</v>
       </c>
       <c r="F20" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G20" s="4">
+        <f t="shared" si="8"/>
         <v>44822</v>
       </c>
       <c r="H20" s="2">
@@ -1328,6 +1378,7 @@
         <v>9</v>
       </c>
       <c r="I20" s="2">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J20" s="2">
@@ -1360,9 +1411,11 @@
         <v>402.6</v>
       </c>
       <c r="F21" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G21" s="4">
+        <f t="shared" si="8"/>
         <v>44823</v>
       </c>
       <c r="H21" s="2">
@@ -1370,6 +1423,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="2">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J21" s="2">
@@ -1402,9 +1456,11 @@
         <v>399.3</v>
       </c>
       <c r="F22" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G22" s="4">
+        <f t="shared" si="8"/>
         <v>44824</v>
       </c>
       <c r="H22" s="2">
@@ -1412,6 +1468,7 @@
         <v>11</v>
       </c>
       <c r="I22" s="2">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J22" s="2">
@@ -1444,9 +1501,11 @@
         <v>396.00000000000006</v>
       </c>
       <c r="F23" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G23" s="4">
+        <f t="shared" si="8"/>
         <v>44825</v>
       </c>
       <c r="H23" s="2">
@@ -1454,6 +1513,7 @@
         <v>12</v>
       </c>
       <c r="I23" s="2">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J23" s="2">
@@ -1486,9 +1546,11 @@
         <v>392.70000000000005</v>
       </c>
       <c r="F24" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G24" s="4">
+        <f t="shared" si="8"/>
         <v>44826</v>
       </c>
       <c r="H24" s="2">
@@ -1496,6 +1558,7 @@
         <v>13</v>
       </c>
       <c r="I24" s="2">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J24" s="2">
@@ -1528,9 +1591,11 @@
         <v>389.40000000000003</v>
       </c>
       <c r="F25" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G25" s="4">
+        <f t="shared" si="8"/>
         <v>44827</v>
       </c>
       <c r="H25" s="2">
@@ -1538,6 +1603,7 @@
         <v>14</v>
       </c>
       <c r="I25" s="2">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J25" s="2">
@@ -1570,9 +1636,11 @@
         <v>386.1</v>
       </c>
       <c r="F26" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G26" s="4">
+        <f t="shared" si="8"/>
         <v>44828</v>
       </c>
       <c r="H26" s="2">
@@ -1580,6 +1648,7 @@
         <v>15</v>
       </c>
       <c r="I26" s="2">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J26" s="2">
@@ -1612,9 +1681,11 @@
         <v>382.8</v>
       </c>
       <c r="F27" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G27" s="4">
+        <f t="shared" si="8"/>
         <v>44829</v>
       </c>
       <c r="H27" s="2">
@@ -1622,6 +1693,7 @@
         <v>16</v>
       </c>
       <c r="I27" s="2">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J27" s="2">
@@ -1654,9 +1726,11 @@
         <v>379.50000000000006</v>
       </c>
       <c r="F28" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G28" s="4">
+        <f t="shared" si="8"/>
         <v>44830</v>
       </c>
       <c r="H28" s="2">
@@ -1664,6 +1738,7 @@
         <v>17</v>
       </c>
       <c r="I28" s="2">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J28" s="2">
@@ -1696,9 +1771,11 @@
         <v>376.20000000000005</v>
       </c>
       <c r="F29" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G29" s="4">
+        <f t="shared" si="8"/>
         <v>44831</v>
       </c>
       <c r="H29" s="2">
@@ -1706,6 +1783,7 @@
         <v>18</v>
       </c>
       <c r="I29" s="2">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J29" s="2">
@@ -1738,9 +1816,11 @@
         <v>372.90000000000003</v>
       </c>
       <c r="F30" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G30" s="4">
+        <f t="shared" si="8"/>
         <v>44832</v>
       </c>
       <c r="H30" s="2">
@@ -1748,6 +1828,7 @@
         <v>19</v>
       </c>
       <c r="I30" s="2">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J30" s="2">
@@ -1780,9 +1861,11 @@
         <v>369.6</v>
       </c>
       <c r="F31" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G31" s="4">
+        <f t="shared" si="8"/>
         <v>44833</v>
       </c>
       <c r="H31" s="2">
@@ -1790,6 +1873,7 @@
         <v>20</v>
       </c>
       <c r="I31" s="2">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J31" s="2">
@@ -1822,9 +1906,11 @@
         <v>366.3</v>
       </c>
       <c r="F32" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G32" s="4">
+        <f t="shared" si="8"/>
         <v>44834</v>
       </c>
       <c r="H32" s="2">
@@ -1832,6 +1918,7 @@
         <v>21</v>
       </c>
       <c r="I32" s="2">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J32" s="2">
@@ -1864,9 +1951,11 @@
         <v>363.00000000000006</v>
       </c>
       <c r="F33" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G33" s="4">
+        <f t="shared" si="8"/>
         <v>44835</v>
       </c>
       <c r="H33" s="2">
@@ -1874,6 +1963,7 @@
         <v>22</v>
       </c>
       <c r="I33" s="2">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J33" s="2">
@@ -1906,9 +1996,11 @@
         <v>359.70000000000005</v>
       </c>
       <c r="F34" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G34" s="4">
+        <f t="shared" si="8"/>
         <v>44836</v>
       </c>
       <c r="H34" s="2">
@@ -1916,6 +2008,7 @@
         <v>23</v>
       </c>
       <c r="I34" s="2">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J34" s="2">
@@ -1940,7 +2033,7 @@
         <v>54</v>
       </c>
       <c r="D35" s="2">
-        <f>$A$1*1.1/2</f>
+        <f>$D$3/2</f>
         <v>3.3000000000000003</v>
       </c>
       <c r="E35" s="2">
@@ -1948,9 +2041,11 @@
         <v>178.20000000000002</v>
       </c>
       <c r="F35" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G35" s="4">
+        <f t="shared" si="8"/>
         <v>44837</v>
       </c>
       <c r="H35" s="2">
@@ -1958,6 +2053,7 @@
         <v>24</v>
       </c>
       <c r="I35" s="2">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J35" s="2">
@@ -1982,7 +2078,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" ref="D36:D38" si="7">$A$1*1.1/2</f>
+        <f t="shared" ref="D36:D38" si="10">$D$3/2</f>
         <v>3.3000000000000003</v>
       </c>
       <c r="E36" s="2">
@@ -1990,9 +2086,11 @@
         <v>176.55</v>
       </c>
       <c r="F36" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G36" s="4">
+        <f t="shared" si="8"/>
         <v>44838</v>
       </c>
       <c r="H36" s="2">
@@ -2000,6 +2098,7 @@
         <v>25</v>
       </c>
       <c r="I36" s="2">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J36" s="2">
@@ -2024,7 +2123,7 @@
         <v>53</v>
       </c>
       <c r="D37" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3.3000000000000003</v>
       </c>
       <c r="E37" s="2">
@@ -2032,9 +2131,11 @@
         <v>174.9</v>
       </c>
       <c r="F37" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G37" s="4">
+        <f t="shared" si="8"/>
         <v>44839</v>
       </c>
       <c r="H37" s="2">
@@ -2042,6 +2143,7 @@
         <v>26</v>
       </c>
       <c r="I37" s="2">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J37" s="2">
@@ -2066,7 +2168,7 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3.3000000000000003</v>
       </c>
       <c r="E38" s="2">
@@ -2074,9 +2176,11 @@
         <v>173.25</v>
       </c>
       <c r="F38" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G38" s="4">
+        <f t="shared" si="8"/>
         <v>44840</v>
       </c>
       <c r="H38" s="2">
@@ -2084,6 +2188,7 @@
         <v>27</v>
       </c>
       <c r="I38" s="2">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J38" s="2">

--- a/LR3/table_1_6.xlsx
+++ b/LR3/table_1_6.xlsx
@@ -516,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,7 +610,7 @@
         <v>44805</v>
       </c>
       <c r="H3" s="2">
-        <f>IF(G3-F3&lt;0,0,G3-F3)</f>
+        <f>IF(F3-G3&gt;=0,0,ABS(F3-G3))</f>
         <v>0</v>
       </c>
       <c r="I3" s="2">
@@ -654,7 +654,7 @@
         <v>44806</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" ref="H4:H38" si="2">IF(G4-F4&lt;0,0,G4-F4)</f>
+        <f t="shared" ref="H4:H38" si="2">IF(F4-G4&gt;=0,0,ABS(F4-G4))</f>
         <v>0</v>
       </c>
       <c r="I4" s="2">
@@ -2033,7 +2033,7 @@
         <v>54</v>
       </c>
       <c r="D35" s="2">
-        <f>$D$3/2</f>
+        <f>($A$1*1.1)/2</f>
         <v>3.3000000000000003</v>
       </c>
       <c r="E35" s="2">
@@ -2078,7 +2078,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" ref="D36:D38" si="10">$D$3/2</f>
+        <f t="shared" ref="D36:D38" si="10">($A$1*1.1)/2</f>
         <v>3.3000000000000003</v>
       </c>
       <c r="E36" s="2">

--- a/LR3/table_1_6.xlsx
+++ b/LR3/table_1_6.xlsx
@@ -516,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="D25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,7 +610,7 @@
         <v>44805</v>
       </c>
       <c r="H3" s="2">
-        <f>IF(F3-G3&gt;=0,0,ABS(F3-G3))</f>
+        <f>IF(F3&gt;=G3,0,G3-F3)</f>
         <v>0</v>
       </c>
       <c r="I3" s="2">
@@ -654,7 +654,7 @@
         <v>44806</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" ref="H4:H38" si="2">IF(F4-G4&gt;=0,0,ABS(F4-G4))</f>
+        <f t="shared" ref="H4:H38" si="2">IF(F4&gt;=G4,0,G4-F4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="2">
@@ -2033,7 +2033,7 @@
         <v>54</v>
       </c>
       <c r="D35" s="2">
-        <f>($A$1*1.1)/2</f>
+        <f>$D$3/2</f>
         <v>3.3000000000000003</v>
       </c>
       <c r="E35" s="2">
@@ -2078,7 +2078,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" ref="D36:D38" si="10">($A$1*1.1)/2</f>
+        <f t="shared" ref="D36:D38" si="10">$D$3/2</f>
         <v>3.3000000000000003</v>
       </c>
       <c r="E36" s="2">

--- a/LR3/table_1_6.xlsx
+++ b/LR3/table_1_6.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,12 +37,6 @@
     <t>Дата оплаты</t>
   </si>
   <si>
-    <t>Просрочка</t>
-  </si>
-  <si>
-    <t>???</t>
-  </si>
-  <si>
     <t>Сумма, руб.</t>
   </si>
   <si>
@@ -170,12 +164,18 @@
   </si>
   <si>
     <t>Бонницин</t>
+  </si>
+  <si>
+    <t>Просрочка, дней</t>
+  </si>
+  <si>
+    <t>Пени за 1 день</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -215,7 +215,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,14 +545,15 @@
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1"/>
     <col min="11" max="11" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -578,10 +579,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>3</v>
@@ -590,16 +591,16 @@
         <v>4</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -609,18 +610,18 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
       </c>
       <c r="D3" s="1">
-        <f>IF(A3&lt;33,6*1.1,6*1.1/2)</f>
-        <v>6.6000000000000005</v>
+        <f>IF(A3&lt;33,26*1.1,26*1.1/2)</f>
+        <v>28.6</v>
       </c>
       <c r="E3" s="1">
         <f>C3*D3</f>
-        <v>462.00000000000006</v>
+        <v>2002</v>
       </c>
       <c r="F3" s="6">
         <v>44813</v>
@@ -641,7 +642,7 @@
       </c>
       <c r="K3" s="1">
         <f>E3+J3</f>
-        <v>462.00000000000006</v>
+        <v>2002</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -651,18 +652,18 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1">
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D38" si="0">IF(A4&lt;33,6*1.1,6*1.1/2)</f>
-        <v>6.6000000000000005</v>
+        <f t="shared" ref="D4:D38" si="0">IF(A4&lt;33,26*1.1,26*1.1/2)</f>
+        <v>28.6</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" ref="E4:E37" si="1">C4*D4</f>
-        <v>458.70000000000005</v>
+        <v>1987.7</v>
       </c>
       <c r="F4" s="6">
         <v>44813</v>
@@ -683,7 +684,7 @@
       </c>
       <c r="K4" s="1">
         <f t="shared" ref="K4:K38" si="3">E4+J4</f>
-        <v>458.70000000000005</v>
+        <v>1987.7</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -693,18 +694,18 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1">
         <v>69</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="0"/>
-        <v>6.6000000000000005</v>
+        <v>28.6</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="1"/>
-        <v>455.40000000000003</v>
+        <v>1973.4</v>
       </c>
       <c r="F5" s="6">
         <v>44813</v>
@@ -725,7 +726,7 @@
       </c>
       <c r="K5" s="1">
         <f t="shared" si="3"/>
-        <v>455.40000000000003</v>
+        <v>1973.4</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -735,18 +736,18 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1">
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="0"/>
-        <v>6.6000000000000005</v>
+        <v>28.6</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="1"/>
-        <v>452.1</v>
+        <v>1959.1000000000001</v>
       </c>
       <c r="F6" s="6">
         <v>44813</v>
@@ -767,7 +768,7 @@
       </c>
       <c r="K6" s="1">
         <f t="shared" si="3"/>
-        <v>452.1</v>
+        <v>1959.1000000000001</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -777,18 +778,18 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1">
         <v>68</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
-        <v>6.6000000000000005</v>
+        <v>28.6</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="1"/>
-        <v>448.8</v>
+        <v>1944.8000000000002</v>
       </c>
       <c r="F7" s="6">
         <v>44813</v>
@@ -809,7 +810,7 @@
       </c>
       <c r="K7" s="1">
         <f t="shared" si="3"/>
-        <v>448.8</v>
+        <v>1944.8000000000002</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -819,18 +820,18 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1">
         <v>67.5</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="0"/>
-        <v>6.6000000000000005</v>
+        <v>28.6</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="1"/>
-        <v>445.50000000000006</v>
+        <v>1930.5</v>
       </c>
       <c r="F8" s="6">
         <v>44813</v>
@@ -851,7 +852,7 @@
       </c>
       <c r="K8" s="1">
         <f t="shared" si="3"/>
-        <v>445.50000000000006</v>
+        <v>1930.5</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -861,18 +862,18 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1">
         <v>67</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="0"/>
-        <v>6.6000000000000005</v>
+        <v>28.6</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="1"/>
-        <v>442.20000000000005</v>
+        <v>1916.2</v>
       </c>
       <c r="F9" s="6">
         <v>44813</v>
@@ -893,7 +894,7 @@
       </c>
       <c r="K9" s="1">
         <f t="shared" si="3"/>
-        <v>442.20000000000005</v>
+        <v>1916.2</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -903,18 +904,18 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1">
         <v>66.5</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="0"/>
-        <v>6.6000000000000005</v>
+        <v>28.6</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="1"/>
-        <v>438.90000000000003</v>
+        <v>1901.9</v>
       </c>
       <c r="F10" s="6">
         <v>44813</v>
@@ -935,7 +936,7 @@
       </c>
       <c r="K10" s="1">
         <f t="shared" si="3"/>
-        <v>438.90000000000003</v>
+        <v>1901.9</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -945,18 +946,18 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1">
         <v>66</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>6.6000000000000005</v>
+        <v>28.6</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="1"/>
-        <v>435.6</v>
+        <v>1887.6000000000001</v>
       </c>
       <c r="F11" s="6">
         <v>44813</v>
@@ -977,7 +978,7 @@
       </c>
       <c r="K11" s="1">
         <f t="shared" si="3"/>
-        <v>435.6</v>
+        <v>1887.6000000000001</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -987,18 +988,18 @@
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C12" s="1">
         <v>65.5</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="0"/>
-        <v>6.6000000000000005</v>
+        <v>28.6</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="1"/>
-        <v>432.3</v>
+        <v>1873.3000000000002</v>
       </c>
       <c r="F12" s="6">
         <v>44813</v>
@@ -1019,7 +1020,7 @@
       </c>
       <c r="K12" s="1">
         <f t="shared" si="3"/>
-        <v>442.3</v>
+        <v>1883.3000000000002</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -1029,18 +1030,18 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1">
         <v>65</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="0"/>
-        <v>6.6000000000000005</v>
+        <v>28.6</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="1"/>
-        <v>429.00000000000006</v>
+        <v>1859</v>
       </c>
       <c r="F13" s="6">
         <v>44813</v>
@@ -1061,7 +1062,7 @@
       </c>
       <c r="K13" s="1">
         <f t="shared" si="3"/>
-        <v>449.00000000000006</v>
+        <v>1879</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -1071,18 +1072,18 @@
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C14" s="1">
         <v>64.5</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="0"/>
-        <v>6.6000000000000005</v>
+        <v>28.6</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="1"/>
-        <v>425.70000000000005</v>
+        <v>1844.7</v>
       </c>
       <c r="F14" s="6">
         <v>44813</v>
@@ -1103,7 +1104,7 @@
       </c>
       <c r="K14" s="1">
         <f t="shared" si="3"/>
-        <v>455.70000000000005</v>
+        <v>1874.7</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -1113,18 +1114,18 @@
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C15" s="1">
         <v>64</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="0"/>
-        <v>6.6000000000000005</v>
+        <v>28.6</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="1"/>
-        <v>422.40000000000003</v>
+        <v>1830.4</v>
       </c>
       <c r="F15" s="6">
         <v>44813</v>
@@ -1145,7 +1146,7 @@
       </c>
       <c r="K15" s="1">
         <f t="shared" si="3"/>
-        <v>462.40000000000003</v>
+        <v>1870.4</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -1155,18 +1156,18 @@
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C16" s="1">
         <v>63.5</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="0"/>
-        <v>6.6000000000000005</v>
+        <v>28.6</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="1"/>
-        <v>419.1</v>
+        <v>1816.1000000000001</v>
       </c>
       <c r="F16" s="6">
         <v>44813</v>
@@ -1187,7 +1188,7 @@
       </c>
       <c r="K16" s="1">
         <f t="shared" si="3"/>
-        <v>469.1</v>
+        <v>1866.1000000000001</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -1197,18 +1198,18 @@
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C17" s="1">
         <v>63</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="0"/>
-        <v>6.6000000000000005</v>
+        <v>28.6</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" si="1"/>
-        <v>415.8</v>
+        <v>1801.8000000000002</v>
       </c>
       <c r="F17" s="6">
         <v>44813</v>
@@ -1229,7 +1230,7 @@
       </c>
       <c r="K17" s="1">
         <f t="shared" si="3"/>
-        <v>475.8</v>
+        <v>1861.8000000000002</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -1239,18 +1240,18 @@
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C18" s="1">
         <v>62.5</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="0"/>
-        <v>6.6000000000000005</v>
+        <v>28.6</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" si="1"/>
-        <v>412.50000000000006</v>
+        <v>1787.5</v>
       </c>
       <c r="F18" s="6">
         <v>44813</v>
@@ -1271,7 +1272,7 @@
       </c>
       <c r="K18" s="1">
         <f t="shared" si="3"/>
-        <v>482.50000000000006</v>
+        <v>1857.5</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -1281,18 +1282,18 @@
         <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C19" s="1">
         <v>62</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="0"/>
-        <v>6.6000000000000005</v>
+        <v>28.6</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="1"/>
-        <v>409.20000000000005</v>
+        <v>1773.2</v>
       </c>
       <c r="F19" s="6">
         <v>44813</v>
@@ -1313,7 +1314,7 @@
       </c>
       <c r="K19" s="1">
         <f t="shared" si="3"/>
-        <v>489.20000000000005</v>
+        <v>1853.2</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -1323,18 +1324,18 @@
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C20" s="1">
         <v>61.5</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="0"/>
-        <v>6.6000000000000005</v>
+        <v>28.6</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" si="1"/>
-        <v>405.90000000000003</v>
+        <v>1758.9</v>
       </c>
       <c r="F20" s="6">
         <v>44813</v>
@@ -1355,7 +1356,7 @@
       </c>
       <c r="K20" s="1">
         <f t="shared" si="3"/>
-        <v>495.90000000000003</v>
+        <v>1848.9</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -1365,18 +1366,18 @@
         <v>19</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C21" s="1">
         <v>61</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="0"/>
-        <v>6.6000000000000005</v>
+        <v>28.6</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="1"/>
-        <v>402.6</v>
+        <v>1744.6000000000001</v>
       </c>
       <c r="F21" s="6">
         <v>44813</v>
@@ -1397,7 +1398,7 @@
       </c>
       <c r="K21" s="1">
         <f t="shared" si="3"/>
-        <v>502.6</v>
+        <v>1844.6000000000001</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -1407,18 +1408,18 @@
         <v>20</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C22" s="1">
         <v>60.5</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="0"/>
-        <v>6.6000000000000005</v>
+        <v>28.6</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="1"/>
-        <v>399.3</v>
+        <v>1730.3000000000002</v>
       </c>
       <c r="F22" s="6">
         <v>44813</v>
@@ -1439,7 +1440,7 @@
       </c>
       <c r="K22" s="1">
         <f t="shared" si="3"/>
-        <v>509.3</v>
+        <v>1840.3000000000002</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -1449,18 +1450,18 @@
         <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C23" s="1">
         <v>60</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="0"/>
-        <v>6.6000000000000005</v>
+        <v>28.6</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" si="1"/>
-        <v>396.00000000000006</v>
+        <v>1716</v>
       </c>
       <c r="F23" s="6">
         <v>44813</v>
@@ -1481,7 +1482,7 @@
       </c>
       <c r="K23" s="1">
         <f t="shared" si="3"/>
-        <v>516</v>
+        <v>1836</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -1491,18 +1492,18 @@
         <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C24" s="1">
         <v>59.5</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="0"/>
-        <v>6.6000000000000005</v>
+        <v>28.6</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="1"/>
-        <v>392.70000000000005</v>
+        <v>1701.7</v>
       </c>
       <c r="F24" s="6">
         <v>44813</v>
@@ -1523,7 +1524,7 @@
       </c>
       <c r="K24" s="1">
         <f t="shared" si="3"/>
-        <v>522.70000000000005</v>
+        <v>1831.7</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -1533,18 +1534,18 @@
         <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C25" s="1">
         <v>59</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="0"/>
-        <v>6.6000000000000005</v>
+        <v>28.6</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="1"/>
-        <v>389.40000000000003</v>
+        <v>1687.4</v>
       </c>
       <c r="F25" s="6">
         <v>44813</v>
@@ -1565,7 +1566,7 @@
       </c>
       <c r="K25" s="1">
         <f t="shared" si="3"/>
-        <v>529.40000000000009</v>
+        <v>1827.4</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -1575,18 +1576,18 @@
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C26" s="1">
         <v>58.5</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="0"/>
-        <v>6.6000000000000005</v>
+        <v>28.6</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" si="1"/>
-        <v>386.1</v>
+        <v>1673.1000000000001</v>
       </c>
       <c r="F26" s="6">
         <v>44813</v>
@@ -1607,7 +1608,7 @@
       </c>
       <c r="K26" s="1">
         <f t="shared" si="3"/>
-        <v>536.1</v>
+        <v>1823.1000000000001</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -1617,18 +1618,18 @@
         <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C27" s="1">
         <v>58</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="0"/>
-        <v>6.6000000000000005</v>
+        <v>28.6</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="1"/>
-        <v>382.8</v>
+        <v>1658.8000000000002</v>
       </c>
       <c r="F27" s="6">
         <v>44813</v>
@@ -1649,7 +1650,7 @@
       </c>
       <c r="K27" s="1">
         <f t="shared" si="3"/>
-        <v>542.79999999999995</v>
+        <v>1818.8000000000002</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -1659,18 +1660,18 @@
         <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C28" s="1">
         <v>57.5</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="0"/>
-        <v>6.6000000000000005</v>
+        <v>28.6</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" si="1"/>
-        <v>379.50000000000006</v>
+        <v>1644.5</v>
       </c>
       <c r="F28" s="6">
         <v>44813</v>
@@ -1691,7 +1692,7 @@
       </c>
       <c r="K28" s="1">
         <f t="shared" si="3"/>
-        <v>549.5</v>
+        <v>1814.5</v>
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -1701,18 +1702,18 @@
         <v>27</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C29" s="1">
         <v>57</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="0"/>
-        <v>6.6000000000000005</v>
+        <v>28.6</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" si="1"/>
-        <v>376.20000000000005</v>
+        <v>1630.2</v>
       </c>
       <c r="F29" s="6">
         <v>44813</v>
@@ -1733,7 +1734,7 @@
       </c>
       <c r="K29" s="1">
         <f t="shared" si="3"/>
-        <v>556.20000000000005</v>
+        <v>1810.2</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
@@ -1743,18 +1744,18 @@
         <v>28</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C30" s="1">
         <v>56.5</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="0"/>
-        <v>6.6000000000000005</v>
+        <v>28.6</v>
       </c>
       <c r="E30" s="1">
         <f t="shared" si="1"/>
-        <v>372.90000000000003</v>
+        <v>1615.9</v>
       </c>
       <c r="F30" s="6">
         <v>44813</v>
@@ -1775,7 +1776,7 @@
       </c>
       <c r="K30" s="1">
         <f t="shared" si="3"/>
-        <v>562.90000000000009</v>
+        <v>1805.9</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -1785,18 +1786,18 @@
         <v>29</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C31" s="1">
         <v>56</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="0"/>
-        <v>6.6000000000000005</v>
+        <v>28.6</v>
       </c>
       <c r="E31" s="1">
         <f t="shared" si="1"/>
-        <v>369.6</v>
+        <v>1601.6000000000001</v>
       </c>
       <c r="F31" s="6">
         <v>44813</v>
@@ -1817,7 +1818,7 @@
       </c>
       <c r="K31" s="1">
         <f t="shared" si="3"/>
-        <v>569.6</v>
+        <v>1801.6000000000001</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -1827,18 +1828,18 @@
         <v>30</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C32" s="1">
         <v>55.5</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="0"/>
-        <v>6.6000000000000005</v>
+        <v>28.6</v>
       </c>
       <c r="E32" s="1">
         <f t="shared" si="1"/>
-        <v>366.3</v>
+        <v>1587.3000000000002</v>
       </c>
       <c r="F32" s="6">
         <v>44813</v>
@@ -1859,7 +1860,7 @@
       </c>
       <c r="K32" s="1">
         <f t="shared" si="3"/>
-        <v>576.29999999999995</v>
+        <v>1797.3000000000002</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -1869,18 +1870,18 @@
         <v>31</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C33" s="1">
         <v>55</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="0"/>
-        <v>6.6000000000000005</v>
+        <v>28.6</v>
       </c>
       <c r="E33" s="1">
         <f t="shared" si="1"/>
-        <v>363.00000000000006</v>
+        <v>1573</v>
       </c>
       <c r="F33" s="6">
         <v>44813</v>
@@ -1901,7 +1902,7 @@
       </c>
       <c r="K33" s="1">
         <f t="shared" si="3"/>
-        <v>583</v>
+        <v>1793</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -1911,18 +1912,18 @@
         <v>32</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C34" s="1">
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="0"/>
-        <v>6.6000000000000005</v>
+        <v>28.6</v>
       </c>
       <c r="E34" s="1">
         <f t="shared" si="1"/>
-        <v>359.70000000000005</v>
+        <v>1558.7</v>
       </c>
       <c r="F34" s="6">
         <v>44813</v>
@@ -1943,7 +1944,7 @@
       </c>
       <c r="K34" s="1">
         <f t="shared" si="3"/>
-        <v>589.70000000000005</v>
+        <v>1788.7</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
@@ -1953,18 +1954,18 @@
         <v>33</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C35" s="1">
         <v>54</v>
       </c>
       <c r="D35" s="1">
         <f t="shared" si="0"/>
-        <v>3.3000000000000003</v>
+        <v>14.3</v>
       </c>
       <c r="E35" s="1">
         <f t="shared" si="1"/>
-        <v>178.20000000000002</v>
+        <v>772.2</v>
       </c>
       <c r="F35" s="6">
         <v>44813</v>
@@ -1985,7 +1986,7 @@
       </c>
       <c r="K35" s="1">
         <f t="shared" si="3"/>
-        <v>418.20000000000005</v>
+        <v>1012.2</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -1995,18 +1996,18 @@
         <v>34</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C36" s="1">
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
         <f t="shared" si="0"/>
-        <v>3.3000000000000003</v>
+        <v>14.3</v>
       </c>
       <c r="E36" s="1">
         <f t="shared" si="1"/>
-        <v>176.55</v>
+        <v>765.05000000000007</v>
       </c>
       <c r="F36" s="6">
         <v>44813</v>
@@ -2027,7 +2028,7 @@
       </c>
       <c r="K36" s="1">
         <f t="shared" si="3"/>
-        <v>426.55</v>
+        <v>1015.0500000000001</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
@@ -2037,18 +2038,18 @@
         <v>35</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C37" s="1">
         <v>53</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" si="0"/>
-        <v>3.3000000000000003</v>
+        <v>14.3</v>
       </c>
       <c r="E37" s="1">
         <f t="shared" si="1"/>
-        <v>174.9</v>
+        <v>757.90000000000009</v>
       </c>
       <c r="F37" s="6">
         <v>44813</v>
@@ -2069,7 +2070,7 @@
       </c>
       <c r="K37" s="1">
         <f t="shared" si="3"/>
-        <v>434.9</v>
+        <v>1017.9000000000001</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
@@ -2079,18 +2080,18 @@
         <v>36</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C38" s="1">
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
         <f t="shared" si="0"/>
-        <v>3.3000000000000003</v>
+        <v>14.3</v>
       </c>
       <c r="E38" s="1">
         <f>C38*D32</f>
-        <v>346.5</v>
+        <v>1501.5</v>
       </c>
       <c r="F38" s="6">
         <v>44813</v>
@@ -2111,7 +2112,7 @@
       </c>
       <c r="K38" s="1">
         <f t="shared" si="3"/>
-        <v>616.5</v>
+        <v>1771.5</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -2134,11 +2135,11 @@
     <row r="40" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C40" s="1">
         <f>ROUNDDOWN(SUM(K3:K371),0.1)</f>
-        <v>17803</v>
+        <v>64547</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -2154,7 +2155,7 @@
     <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2174,7 +2175,7 @@
     <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2194,7 +2195,7 @@
     <row r="43" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(J3:J38)</f>

--- a/LR3/table_1_6.xlsx
+++ b/LR3/table_1_6.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067EECAE-5232-4AA1-86CD-56C7C044CA07}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -177,7 +178,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -197,6 +198,8 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -513,11 +516,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,7 +599,7 @@
         <v>70</v>
       </c>
       <c r="D3" s="2">
-        <f>$A$1*1.1</f>
+        <f>A1*1.1</f>
         <v>6.6000000000000005</v>
       </c>
       <c r="E3" s="2">
@@ -610,14 +613,14 @@
         <v>44805</v>
       </c>
       <c r="H3" s="2">
-        <f>IF(F3&gt;=G3,0,G3-F3)</f>
+        <f>IF(G3&gt;F3,G3-F3,0)</f>
         <v>0</v>
       </c>
       <c r="I3" s="2">
         <v>10</v>
       </c>
       <c r="J3" s="2">
-        <f>I3*H3</f>
+        <f>H3*I3</f>
         <v>0</v>
       </c>
       <c r="K3" s="2">
@@ -638,11 +641,11 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D34" si="0">$A$1*1.1</f>
+        <f>D3</f>
         <v>6.6000000000000005</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" ref="E4:E38" si="1">C4*D4</f>
+        <f t="shared" ref="E4:E38" si="0">C4*D4</f>
         <v>458.70000000000005</v>
       </c>
       <c r="F4" s="4">
@@ -654,7 +657,7 @@
         <v>44806</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" ref="H4:H38" si="2">IF(F4&gt;=G4,0,G4-F4)</f>
+        <f t="shared" ref="H4:H38" si="1">IF(G4&gt;F4,G4-F4,0)</f>
         <v>0</v>
       </c>
       <c r="I4" s="2">
@@ -662,32 +665,32 @@
         <v>10</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" ref="J4:J38" si="3">I4*H4</f>
+        <f t="shared" ref="J4:J38" si="2">H4*I4</f>
         <v>0</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" ref="K4:K38" si="4">E4+J4</f>
+        <f t="shared" ref="K4:K38" si="3">E4+J4</f>
         <v>458.70000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <f t="shared" ref="A5:A38" si="5">A4+1</f>
+        <f t="shared" ref="A5:A38" si="4">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" ref="C5:C38" si="6">C4-0.5</f>
+        <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D5:D38" si="6">D4</f>
         <v>6.6000000000000005</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>455.40000000000003</v>
       </c>
       <c r="F5" s="4">
@@ -699,7 +702,7 @@
         <v>44807</v>
       </c>
       <c r="H5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5" s="2">
@@ -707,32 +710,32 @@
         <v>10</v>
       </c>
       <c r="J5" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K5" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>455.40000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>452.1</v>
       </c>
       <c r="F6" s="4">
@@ -744,7 +747,7 @@
         <v>44808</v>
       </c>
       <c r="H6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I6" s="2">
@@ -752,32 +755,32 @@
         <v>10</v>
       </c>
       <c r="J6" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K6" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>452.1</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>448.8</v>
       </c>
       <c r="F7" s="4">
@@ -789,7 +792,7 @@
         <v>44809</v>
       </c>
       <c r="H7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I7" s="2">
@@ -797,32 +800,32 @@
         <v>10</v>
       </c>
       <c r="J7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K7" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>448.8</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>445.50000000000006</v>
       </c>
       <c r="F8" s="4">
@@ -834,7 +837,7 @@
         <v>44810</v>
       </c>
       <c r="H8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I8" s="2">
@@ -842,32 +845,32 @@
         <v>10</v>
       </c>
       <c r="J8" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K8" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>445.50000000000006</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>442.20000000000005</v>
       </c>
       <c r="F9" s="4">
@@ -879,7 +882,7 @@
         <v>44811</v>
       </c>
       <c r="H9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="2">
@@ -887,32 +890,32 @@
         <v>10</v>
       </c>
       <c r="J9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>442.20000000000005</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>438.90000000000003</v>
       </c>
       <c r="F10" s="4">
@@ -924,7 +927,7 @@
         <v>44812</v>
       </c>
       <c r="H10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10" s="2">
@@ -932,32 +935,32 @@
         <v>10</v>
       </c>
       <c r="J10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K10" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>438.90000000000003</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>435.6</v>
       </c>
       <c r="F11" s="4">
@@ -969,7 +972,7 @@
         <v>44813</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11" s="2">
@@ -977,32 +980,32 @@
         <v>10</v>
       </c>
       <c r="J11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K11" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>435.6</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>432.3</v>
       </c>
       <c r="F12" s="4">
@@ -1014,7 +1017,7 @@
         <v>44814</v>
       </c>
       <c r="H12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I12" s="2">
@@ -1022,32 +1025,32 @@
         <v>10</v>
       </c>
       <c r="J12" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="K12" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>442.3</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>429.00000000000006</v>
       </c>
       <c r="F13" s="4">
@@ -1059,7 +1062,7 @@
         <v>44815</v>
       </c>
       <c r="H13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I13" s="2">
@@ -1067,32 +1070,32 @@
         <v>10</v>
       </c>
       <c r="J13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="K13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>449.00000000000006</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>425.70000000000005</v>
       </c>
       <c r="F14" s="4">
@@ -1104,7 +1107,7 @@
         <v>44816</v>
       </c>
       <c r="H14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I14" s="2">
@@ -1112,32 +1115,32 @@
         <v>10</v>
       </c>
       <c r="J14" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="K14" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>455.70000000000005</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>422.40000000000003</v>
       </c>
       <c r="F15" s="4">
@@ -1149,7 +1152,7 @@
         <v>44817</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I15" s="2">
@@ -1157,32 +1160,32 @@
         <v>10</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>462.40000000000003</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>419.1</v>
       </c>
       <c r="F16" s="4">
@@ -1194,7 +1197,7 @@
         <v>44818</v>
       </c>
       <c r="H16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I16" s="2">
@@ -1202,32 +1205,32 @@
         <v>10</v>
       </c>
       <c r="J16" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="K16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>469.1</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>415.8</v>
       </c>
       <c r="F17" s="4">
@@ -1239,7 +1242,7 @@
         <v>44819</v>
       </c>
       <c r="H17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I17" s="2">
@@ -1247,32 +1250,32 @@
         <v>10</v>
       </c>
       <c r="J17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="K17" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>475.8</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>412.50000000000006</v>
       </c>
       <c r="F18" s="4">
@@ -1284,7 +1287,7 @@
         <v>44820</v>
       </c>
       <c r="H18" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I18" s="2">
@@ -1292,32 +1295,32 @@
         <v>10</v>
       </c>
       <c r="J18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="K18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>482.50000000000006</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>409.20000000000005</v>
       </c>
       <c r="F19" s="4">
@@ -1329,7 +1332,7 @@
         <v>44821</v>
       </c>
       <c r="H19" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I19" s="2">
@@ -1337,32 +1340,32 @@
         <v>10</v>
       </c>
       <c r="J19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="K19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>489.20000000000005</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>405.90000000000003</v>
       </c>
       <c r="F20" s="4">
@@ -1374,7 +1377,7 @@
         <v>44822</v>
       </c>
       <c r="H20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="I20" s="2">
@@ -1382,32 +1385,32 @@
         <v>10</v>
       </c>
       <c r="J20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="K20" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>495.90000000000003</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>402.6</v>
       </c>
       <c r="F21" s="4">
@@ -1419,7 +1422,7 @@
         <v>44823</v>
       </c>
       <c r="H21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I21" s="2">
@@ -1427,32 +1430,32 @@
         <v>10</v>
       </c>
       <c r="J21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="K21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>502.6</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>399.3</v>
       </c>
       <c r="F22" s="4">
@@ -1464,7 +1467,7 @@
         <v>44824</v>
       </c>
       <c r="H22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="I22" s="2">
@@ -1472,32 +1475,32 @@
         <v>10</v>
       </c>
       <c r="J22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="K22" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>509.3</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>396.00000000000006</v>
       </c>
       <c r="F23" s="4">
@@ -1509,7 +1512,7 @@
         <v>44825</v>
       </c>
       <c r="H23" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I23" s="2">
@@ -1517,32 +1520,32 @@
         <v>10</v>
       </c>
       <c r="J23" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="K23" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>516</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C24" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>392.70000000000005</v>
       </c>
       <c r="F24" s="4">
@@ -1554,7 +1557,7 @@
         <v>44826</v>
       </c>
       <c r="H24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="I24" s="2">
@@ -1562,32 +1565,32 @@
         <v>10</v>
       </c>
       <c r="J24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
       <c r="K24" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>522.70000000000005</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>389.40000000000003</v>
       </c>
       <c r="F25" s="4">
@@ -1599,7 +1602,7 @@
         <v>44827</v>
       </c>
       <c r="H25" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="I25" s="2">
@@ -1607,32 +1610,32 @@
         <v>10</v>
       </c>
       <c r="J25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="K25" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>529.40000000000009</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="E26" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>386.1</v>
       </c>
       <c r="F26" s="4">
@@ -1644,7 +1647,7 @@
         <v>44828</v>
       </c>
       <c r="H26" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="I26" s="2">
@@ -1652,32 +1655,32 @@
         <v>10</v>
       </c>
       <c r="J26" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="K26" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>536.1</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="E27" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>382.8</v>
       </c>
       <c r="F27" s="4">
@@ -1689,7 +1692,7 @@
         <v>44829</v>
       </c>
       <c r="H27" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="I27" s="2">
@@ -1697,32 +1700,32 @@
         <v>10</v>
       </c>
       <c r="J27" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="K27" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>542.79999999999995</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="E28" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>379.50000000000006</v>
       </c>
       <c r="F28" s="4">
@@ -1734,7 +1737,7 @@
         <v>44830</v>
       </c>
       <c r="H28" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="I28" s="2">
@@ -1742,32 +1745,32 @@
         <v>10</v>
       </c>
       <c r="J28" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="K28" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>549.5</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C29" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="E29" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>376.20000000000005</v>
       </c>
       <c r="F29" s="4">
@@ -1779,7 +1782,7 @@
         <v>44831</v>
       </c>
       <c r="H29" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="I29" s="2">
@@ -1787,32 +1790,32 @@
         <v>10</v>
       </c>
       <c r="J29" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="K29" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>556.20000000000005</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C30" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="E30" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>372.90000000000003</v>
       </c>
       <c r="F30" s="4">
@@ -1824,7 +1827,7 @@
         <v>44832</v>
       </c>
       <c r="H30" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="I30" s="2">
@@ -1832,32 +1835,32 @@
         <v>10</v>
       </c>
       <c r="J30" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
       <c r="K30" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>562.90000000000009</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C31" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="E31" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>369.6</v>
       </c>
       <c r="F31" s="4">
@@ -1869,7 +1872,7 @@
         <v>44833</v>
       </c>
       <c r="H31" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="I31" s="2">
@@ -1877,32 +1880,32 @@
         <v>10</v>
       </c>
       <c r="J31" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="K31" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>569.6</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C32" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="E32" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>366.3</v>
       </c>
       <c r="F32" s="4">
@@ -1914,7 +1917,7 @@
         <v>44834</v>
       </c>
       <c r="H32" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="I32" s="2">
@@ -1922,32 +1925,32 @@
         <v>10</v>
       </c>
       <c r="J32" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>210</v>
       </c>
       <c r="K32" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>576.29999999999995</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C33" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="E33" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>363.00000000000006</v>
       </c>
       <c r="F33" s="4">
@@ -1959,7 +1962,7 @@
         <v>44835</v>
       </c>
       <c r="H33" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="I33" s="2">
@@ -1967,32 +1970,32 @@
         <v>10</v>
       </c>
       <c r="J33" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="K33" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>583</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C34" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="E34" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>359.70000000000005</v>
       </c>
       <c r="F34" s="4">
@@ -2004,7 +2007,7 @@
         <v>44836</v>
       </c>
       <c r="H34" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="I34" s="2">
@@ -2012,32 +2015,32 @@
         <v>10</v>
       </c>
       <c r="J34" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>230</v>
       </c>
       <c r="K34" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>589.70000000000005</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C35" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="D35" s="2">
-        <f>$D$3/2</f>
+        <f>D3/2</f>
         <v>3.3000000000000003</v>
       </c>
       <c r="E35" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>178.20000000000002</v>
       </c>
       <c r="F35" s="4">
@@ -2049,7 +2052,7 @@
         <v>44837</v>
       </c>
       <c r="H35" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="I35" s="2">
@@ -2057,32 +2060,32 @@
         <v>10</v>
       </c>
       <c r="J35" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>240</v>
       </c>
       <c r="K35" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>418.20000000000005</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C36" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" ref="D36:D38" si="10">$D$3/2</f>
+        <f t="shared" ref="D36:D38" si="10">D4/2</f>
         <v>3.3000000000000003</v>
       </c>
       <c r="E36" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>176.55</v>
       </c>
       <c r="F36" s="4">
@@ -2094,7 +2097,7 @@
         <v>44838</v>
       </c>
       <c r="H36" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="I36" s="2">
@@ -2102,24 +2105,24 @@
         <v>10</v>
       </c>
       <c r="J36" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>250</v>
       </c>
       <c r="K36" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>426.55</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C37" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="D37" s="2">
@@ -2127,7 +2130,7 @@
         <v>3.3000000000000003</v>
       </c>
       <c r="E37" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>174.9</v>
       </c>
       <c r="F37" s="4">
@@ -2139,7 +2142,7 @@
         <v>44839</v>
       </c>
       <c r="H37" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="I37" s="2">
@@ -2147,24 +2150,24 @@
         <v>10</v>
       </c>
       <c r="J37" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>260</v>
       </c>
       <c r="K37" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>434.9</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C38" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="2">
@@ -2172,7 +2175,7 @@
         <v>3.3000000000000003</v>
       </c>
       <c r="E38" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>173.25</v>
       </c>
       <c r="F38" s="4">
@@ -2184,7 +2187,7 @@
         <v>44840</v>
       </c>
       <c r="H38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="I38" s="2">
@@ -2192,11 +2195,11 @@
         <v>10</v>
       </c>
       <c r="J38" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>270</v>
       </c>
       <c r="K38" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>443.25</v>
       </c>
     </row>

--- a/LR3/table_1_6.xlsx
+++ b/LR3/table_1_6.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ИТ ДЗ таблицы exel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867893CB-237F-4426-8CE5-A2949F6C5779}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E10E54-6927-4851-959A-1609F6F84BFD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="12075" xr2:uid="{54F77296-E401-47AA-B23C-DA15FD24952F}"/>
   </bookViews>
@@ -135,9 +135,6 @@
     <t>Куропаткин 16</t>
   </si>
   <si>
-    <t>Куропаткин 17</t>
-  </si>
-  <si>
     <t>Площадь, кв.м.</t>
   </si>
   <si>
@@ -178,6 +175,9 @@
   </si>
   <si>
     <t>Пени за 1 день</t>
+  </si>
+  <si>
+    <t>Алимжанов</t>
   </si>
 </sst>
 </file>
@@ -537,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E7BC74-71A8-4A18-A6A0-018DE8FB78C9}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -573,37 +573,37 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1331,7 +1331,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="C21" s="1">
         <v>61</v>
@@ -1371,7 +1371,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="1">
         <v>60.5</v>
@@ -1411,7 +1411,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="1">
         <v>60</v>
@@ -1451,7 +1451,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="1">
         <v>59.5</v>
@@ -1491,7 +1491,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="1">
         <v>59</v>
@@ -1531,7 +1531,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" s="1">
         <v>58.5</v>
@@ -1571,7 +1571,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" s="1">
         <v>58</v>
@@ -1611,7 +1611,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" s="1">
         <v>57.5</v>
@@ -1651,7 +1651,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" s="1">
         <v>57</v>
@@ -1691,7 +1691,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="1">
         <v>56.5</v>
@@ -1731,7 +1731,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" s="1">
         <v>56</v>
@@ -1771,7 +1771,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32" s="1">
         <v>55.5</v>
@@ -1811,7 +1811,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" s="1">
         <v>55</v>
@@ -1851,7 +1851,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34" s="1">
         <v>54.5</v>
@@ -1891,7 +1891,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C35" s="1">
         <v>54</v>
@@ -1931,7 +1931,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C36" s="1">
         <v>53.5</v>
@@ -1971,7 +1971,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C37" s="1">
         <v>53</v>
@@ -2011,7 +2011,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C38" s="1">
         <v>52.5</v>
@@ -2062,7 +2062,7 @@
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C40" s="1">
         <f>SUM(K3:K38)</f>
@@ -2080,7 +2080,7 @@
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2098,7 +2098,7 @@
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2116,7 +2116,7 @@
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_6.xlsx
+++ b/LR3/table_1_6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E10E54-6927-4851-959A-1609F6F84BFD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74199D5D-353C-4840-ACDF-4402D4551FAD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="12075" xr2:uid="{54F77296-E401-47AA-B23C-DA15FD24952F}"/>
   </bookViews>
@@ -165,9 +165,6 @@
     <t>Максимальный срок просрочки, дней</t>
   </si>
   <si>
-    <t>Максимальная сумма к оплате, руб.</t>
-  </si>
-  <si>
     <t>Общая сумма, руб.</t>
   </si>
   <si>
@@ -178,6 +175,9 @@
   </si>
   <si>
     <t>Алимжанов</t>
+  </si>
+  <si>
+    <t>Максимальная сумма, руб.</t>
   </si>
 </sst>
 </file>
@@ -537,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E7BC74-71A8-4A18-A6A0-018DE8FB78C9}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -573,7 +573,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>41</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>42</v>
@@ -1331,7 +1331,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="1">
         <v>61</v>
@@ -2062,7 +2062,7 @@
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C40" s="1">
         <f>SUM(K3:K38)</f>
@@ -2116,7 +2116,7 @@
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_6.xlsx
+++ b/LR3/table_1_6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74199D5D-353C-4840-ACDF-4402D4551FAD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6552CB1-3567-4F5E-9BAE-E6B5985FDBE2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="12075" xr2:uid="{54F77296-E401-47AA-B23C-DA15FD24952F}"/>
   </bookViews>
@@ -171,13 +171,13 @@
     <t>№ квартиры</t>
   </si>
   <si>
-    <t>Пени за 1 день</t>
-  </si>
-  <si>
     <t>Алимжанов</t>
   </si>
   <si>
     <t>Максимальная сумма, руб.</t>
+  </si>
+  <si>
+    <t>Пени за 1 день, руб.</t>
   </si>
 </sst>
 </file>
@@ -537,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E7BC74-71A8-4A18-A6A0-018DE8FB78C9}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -550,8 +550,8 @@
     <col min="5" max="5" width="12.75" customWidth="1"/>
     <col min="6" max="6" width="17.875" customWidth="1"/>
     <col min="7" max="7" width="13.5" customWidth="1"/>
-    <col min="8" max="8" width="15.375" customWidth="1"/>
-    <col min="9" max="9" width="16.25" customWidth="1"/>
+    <col min="8" max="8" width="18.125" customWidth="1"/>
+    <col min="9" max="9" width="18.375" customWidth="1"/>
     <col min="10" max="10" width="17.875" customWidth="1"/>
     <col min="11" max="11" width="14.125" customWidth="1"/>
   </cols>
@@ -597,7 +597,7 @@
         <v>41</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>42</v>
@@ -1331,7 +1331,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C21" s="1">
         <v>61</v>
@@ -2116,7 +2116,7 @@
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_6.xlsx
+++ b/LR3/table_1_6.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067EECAE-5232-4AA1-86CD-56C7C044CA07}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -178,7 +177,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -516,29 +515,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="37.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="37.109375" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" customWidth="1"/>
-    <col min="9" max="9" width="21.140625" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" customWidth="1"/>
+    <col min="9" max="9" width="21.109375" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>6</v>
       </c>
@@ -553,7 +552,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -588,7 +587,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -628,7 +627,7 @@
         <v>462.00000000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <f>A3+1</f>
         <v>2</v>
@@ -673,7 +672,7 @@
         <v>458.70000000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <f t="shared" ref="A5:A38" si="4">A4+1</f>
         <v>3</v>
@@ -686,7 +685,7 @@
         <v>69</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" ref="D5:D38" si="6">D4</f>
+        <f t="shared" ref="D5:D34" si="6">D4</f>
         <v>6.6000000000000005</v>
       </c>
       <c r="E5" s="2">
@@ -718,7 +717,7 @@
         <v>455.40000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -763,7 +762,7 @@
         <v>452.1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -808,7 +807,7 @@
         <v>448.8</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -853,7 +852,7 @@
         <v>445.50000000000006</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -898,7 +897,7 @@
         <v>442.20000000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -943,7 +942,7 @@
         <v>438.90000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <f t="shared" si="4"/>
         <v>9</v>
@@ -988,7 +987,7 @@
         <v>435.6</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -1033,7 +1032,7 @@
         <v>442.3</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -1078,7 +1077,7 @@
         <v>449.00000000000006</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -1123,7 +1122,7 @@
         <v>455.70000000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -1168,7 +1167,7 @@
         <v>462.40000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <f t="shared" si="4"/>
         <v>14</v>
@@ -1213,7 +1212,7 @@
         <v>469.1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <f t="shared" si="4"/>
         <v>15</v>
@@ -1258,7 +1257,7 @@
         <v>475.8</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <f t="shared" si="4"/>
         <v>16</v>
@@ -1303,7 +1302,7 @@
         <v>482.50000000000006</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <f t="shared" si="4"/>
         <v>17</v>
@@ -1348,7 +1347,7 @@
         <v>489.20000000000005</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <f t="shared" si="4"/>
         <v>18</v>
@@ -1393,7 +1392,7 @@
         <v>495.90000000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <f t="shared" si="4"/>
         <v>19</v>
@@ -1438,7 +1437,7 @@
         <v>502.6</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <f t="shared" si="4"/>
         <v>20</v>
@@ -1483,7 +1482,7 @@
         <v>509.3</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <f t="shared" si="4"/>
         <v>21</v>
@@ -1528,7 +1527,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <f t="shared" si="4"/>
         <v>22</v>
@@ -1573,7 +1572,7 @@
         <v>522.70000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <f t="shared" si="4"/>
         <v>23</v>
@@ -1618,7 +1617,7 @@
         <v>529.40000000000009</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <f t="shared" si="4"/>
         <v>24</v>
@@ -1663,7 +1662,7 @@
         <v>536.1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <f t="shared" si="4"/>
         <v>25</v>
@@ -1708,7 +1707,7 @@
         <v>542.79999999999995</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <f t="shared" si="4"/>
         <v>26</v>
@@ -1753,7 +1752,7 @@
         <v>549.5</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <f t="shared" si="4"/>
         <v>27</v>
@@ -1798,7 +1797,7 @@
         <v>556.20000000000005</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <f t="shared" si="4"/>
         <v>28</v>
@@ -1843,7 +1842,7 @@
         <v>562.90000000000009</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <f t="shared" si="4"/>
         <v>29</v>
@@ -1888,7 +1887,7 @@
         <v>569.6</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <f t="shared" si="4"/>
         <v>30</v>
@@ -1933,7 +1932,7 @@
         <v>576.29999999999995</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <f t="shared" si="4"/>
         <v>31</v>
@@ -1978,7 +1977,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <f t="shared" si="4"/>
         <v>32</v>
@@ -2023,7 +2022,7 @@
         <v>589.70000000000005</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <f t="shared" si="4"/>
         <v>33</v>
@@ -2068,7 +2067,7 @@
         <v>418.20000000000005</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <f t="shared" si="4"/>
         <v>34</v>
@@ -2113,7 +2112,7 @@
         <v>426.55</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <f t="shared" si="4"/>
         <v>35</v>
@@ -2158,7 +2157,7 @@
         <v>434.9</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <f t="shared" si="4"/>
         <v>36</v>
@@ -2203,7 +2202,7 @@
         <v>443.25</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2216,13 +2215,13 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C40" s="5">
-        <f>SUM(K3:K38)</f>
+        <f>FLOOR(SUM(K3:K38), 0.1)</f>
         <v>17630.100000000002</v>
       </c>
       <c r="D40" s="1"/>
@@ -2234,7 +2233,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="3" t="s">
         <v>48</v>
@@ -2252,7 +2251,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="3" t="s">
         <v>47</v>
@@ -2270,7 +2269,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="3" t="s">
         <v>50</v>
@@ -2288,7 +2287,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>

--- a/LR3/table_1_6.xlsx
+++ b/LR3/table_1_6.xlsx
@@ -1,18 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A434ED-FFDB-46AF-8A33-79214D9B73EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -177,7 +187,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -515,29 +525,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
-    <col min="2" max="2" width="37.109375" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" customWidth="1"/>
-    <col min="8" max="8" width="18.5546875" customWidth="1"/>
-    <col min="9" max="9" width="21.109375" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="9" max="9" width="21.140625" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>6</v>
       </c>
@@ -552,7 +562,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -587,7 +597,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -627,7 +637,7 @@
         <v>462.00000000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <f>A3+1</f>
         <v>2</v>
@@ -672,7 +682,7 @@
         <v>458.70000000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <f t="shared" ref="A5:A38" si="4">A4+1</f>
         <v>3</v>
@@ -717,7 +727,7 @@
         <v>455.40000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -762,7 +772,7 @@
         <v>452.1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -807,7 +817,7 @@
         <v>448.8</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -852,7 +862,7 @@
         <v>445.50000000000006</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -897,7 +907,7 @@
         <v>442.20000000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -942,7 +952,7 @@
         <v>438.90000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <f t="shared" si="4"/>
         <v>9</v>
@@ -987,7 +997,7 @@
         <v>435.6</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -1032,7 +1042,7 @@
         <v>442.3</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -1077,7 +1087,7 @@
         <v>449.00000000000006</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -1122,7 +1132,7 @@
         <v>455.70000000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -1167,7 +1177,7 @@
         <v>462.40000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f t="shared" si="4"/>
         <v>14</v>
@@ -1212,7 +1222,7 @@
         <v>469.1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f t="shared" si="4"/>
         <v>15</v>
@@ -1257,7 +1267,7 @@
         <v>475.8</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f t="shared" si="4"/>
         <v>16</v>
@@ -1302,7 +1312,7 @@
         <v>482.50000000000006</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <f t="shared" si="4"/>
         <v>17</v>
@@ -1347,7 +1357,7 @@
         <v>489.20000000000005</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <f t="shared" si="4"/>
         <v>18</v>
@@ -1392,7 +1402,7 @@
         <v>495.90000000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <f t="shared" si="4"/>
         <v>19</v>
@@ -1437,7 +1447,7 @@
         <v>502.6</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <f t="shared" si="4"/>
         <v>20</v>
@@ -1482,7 +1492,7 @@
         <v>509.3</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <f t="shared" si="4"/>
         <v>21</v>
@@ -1527,7 +1537,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <f t="shared" si="4"/>
         <v>22</v>
@@ -1572,7 +1582,7 @@
         <v>522.70000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <f t="shared" si="4"/>
         <v>23</v>
@@ -1617,7 +1627,7 @@
         <v>529.40000000000009</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <f t="shared" si="4"/>
         <v>24</v>
@@ -1662,7 +1672,7 @@
         <v>536.1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <f t="shared" si="4"/>
         <v>25</v>
@@ -1707,7 +1717,7 @@
         <v>542.79999999999995</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <f t="shared" si="4"/>
         <v>26</v>
@@ -1752,7 +1762,7 @@
         <v>549.5</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <f t="shared" si="4"/>
         <v>27</v>
@@ -1797,7 +1807,7 @@
         <v>556.20000000000005</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <f t="shared" si="4"/>
         <v>28</v>
@@ -1842,7 +1852,7 @@
         <v>562.90000000000009</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <f t="shared" si="4"/>
         <v>29</v>
@@ -1887,7 +1897,7 @@
         <v>569.6</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <f t="shared" si="4"/>
         <v>30</v>
@@ -1932,7 +1942,7 @@
         <v>576.29999999999995</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <f t="shared" si="4"/>
         <v>31</v>
@@ -1977,7 +1987,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <f t="shared" si="4"/>
         <v>32</v>
@@ -2022,7 +2032,7 @@
         <v>589.70000000000005</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <f t="shared" si="4"/>
         <v>33</v>
@@ -2067,7 +2077,7 @@
         <v>418.20000000000005</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <f t="shared" si="4"/>
         <v>34</v>
@@ -2112,7 +2122,7 @@
         <v>426.55</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <f t="shared" si="4"/>
         <v>35</v>
@@ -2157,7 +2167,7 @@
         <v>434.9</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <f t="shared" si="4"/>
         <v>36</v>
@@ -2202,7 +2212,7 @@
         <v>443.25</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2215,14 +2225,14 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C40" s="5">
-        <f>FLOOR(SUM(K3:K38), 0.1)</f>
-        <v>17630.100000000002</v>
+        <f>FLOOR(SUM(K3:K38), 1)</f>
+        <v>17630</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -2233,7 +2243,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="3" t="s">
         <v>48</v>
@@ -2251,7 +2261,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="3" t="s">
         <v>47</v>
@@ -2269,7 +2279,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="3" t="s">
         <v>50</v>
@@ -2287,7 +2297,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>

--- a/LR3/table_1_6.xlsx
+++ b/LR3/table_1_6.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A434ED-FFDB-46AF-8A33-79214D9B73EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF2E77D-555D-4E6C-995A-C74250D3FFA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -181,7 +181,7 @@
     <t>Фамилия квартиросъёмщика</t>
   </si>
   <si>
-    <t>Максимальная сумма к оплате, руб.</t>
+    <t>Максимальная сумма, руб.</t>
   </si>
 </sst>
 </file>
@@ -231,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -245,6 +245,9 @@
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -528,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,25 +578,25 @@
       <c r="D2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2227,7 +2230,7 @@
     </row>
     <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C40" s="5">
@@ -2245,7 +2248,7 @@
     </row>
     <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="6" t="s">
         <v>48</v>
       </c>
       <c r="C41" s="2">
@@ -2263,7 +2266,7 @@
     </row>
     <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="6" t="s">
         <v>47</v>
       </c>
       <c r="C42" s="2">
@@ -2281,7 +2284,7 @@
     </row>
     <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="6" t="s">
         <v>50</v>
       </c>
       <c r="C43" s="2">

--- a/LR3/table_1_6.xlsx
+++ b/LR3/table_1_6.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF2E77D-555D-4E6C-995A-C74250D3FFA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878BAA5C-CC78-4059-BBC2-A46FA82DF102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8325" yWindow="1815" windowWidth="21465" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -139,9 +139,6 @@
     <t>Куропаткин 1</t>
   </si>
   <si>
-    <t>Куропаткин 2</t>
-  </si>
-  <si>
     <t>Площадь, кв.м.</t>
   </si>
   <si>
@@ -182,12 +179,18 @@
   </si>
   <si>
     <t>Максимальная сумма, руб.</t>
+  </si>
+  <si>
+    <t>Кузин</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -197,11 +200,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -228,30 +232,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Денежный 2" xfId="2" xr:uid="{AD733C34-F3F3-4A2E-A1F7-73C39496EDF3}"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{3E0E63A1-2F82-4360-B138-E0CC88634076}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -531,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,41 +578,41 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
@@ -618,10 +626,10 @@
         <f>C3*D3</f>
         <v>462.00000000000006</v>
       </c>
-      <c r="F3" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G3" s="4">
+      <c r="F3" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G3" s="3">
         <v>44805</v>
       </c>
       <c r="H3" s="2">
@@ -645,7 +653,7 @@
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2">
@@ -660,11 +668,11 @@
         <f t="shared" ref="E4:E38" si="0">C4*D4</f>
         <v>458.70000000000005</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <f>$F$3</f>
         <v>44813</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <f>G3+1</f>
         <v>44806</v>
       </c>
@@ -690,7 +698,7 @@
         <f t="shared" ref="A5:A38" si="4">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2">
@@ -705,11 +713,11 @@
         <f t="shared" si="0"/>
         <v>455.40000000000003</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <f t="shared" ref="F5:F38" si="7">$F$3</f>
         <v>44813</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <f t="shared" ref="G5:G38" si="8">G4+1</f>
         <v>44807</v>
       </c>
@@ -735,7 +743,7 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="2">
@@ -750,11 +758,11 @@
         <f t="shared" si="0"/>
         <v>452.1</v>
       </c>
-      <c r="F6" s="4">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G6" s="4">
+      <c r="F6" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G6" s="3">
         <f t="shared" si="8"/>
         <v>44808</v>
       </c>
@@ -780,7 +788,7 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="2">
@@ -795,11 +803,11 @@
         <f t="shared" si="0"/>
         <v>448.8</v>
       </c>
-      <c r="F7" s="4">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G7" s="4">
+      <c r="F7" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G7" s="3">
         <f t="shared" si="8"/>
         <v>44809</v>
       </c>
@@ -825,7 +833,7 @@
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="2">
@@ -840,11 +848,11 @@
         <f t="shared" si="0"/>
         <v>445.50000000000006</v>
       </c>
-      <c r="F8" s="4">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G8" s="4">
+      <c r="F8" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G8" s="3">
         <f t="shared" si="8"/>
         <v>44810</v>
       </c>
@@ -870,7 +878,7 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="2">
@@ -885,11 +893,11 @@
         <f t="shared" si="0"/>
         <v>442.20000000000005</v>
       </c>
-      <c r="F9" s="4">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G9" s="4">
+      <c r="F9" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G9" s="3">
         <f t="shared" si="8"/>
         <v>44811</v>
       </c>
@@ -915,7 +923,7 @@
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="2">
@@ -930,11 +938,11 @@
         <f t="shared" si="0"/>
         <v>438.90000000000003</v>
       </c>
-      <c r="F10" s="4">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G10" s="4">
+      <c r="F10" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G10" s="3">
         <f t="shared" si="8"/>
         <v>44812</v>
       </c>
@@ -960,7 +968,7 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="2">
@@ -975,11 +983,11 @@
         <f t="shared" si="0"/>
         <v>435.6</v>
       </c>
-      <c r="F11" s="4">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G11" s="4">
+      <c r="F11" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G11" s="3">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
@@ -1005,7 +1013,7 @@
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="2">
@@ -1020,11 +1028,11 @@
         <f t="shared" si="0"/>
         <v>432.3</v>
       </c>
-      <c r="F12" s="4">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G12" s="4">
+      <c r="F12" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G12" s="3">
         <f t="shared" si="8"/>
         <v>44814</v>
       </c>
@@ -1050,7 +1058,7 @@
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="2">
@@ -1065,11 +1073,11 @@
         <f t="shared" si="0"/>
         <v>429.00000000000006</v>
       </c>
-      <c r="F13" s="4">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G13" s="4">
+      <c r="F13" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G13" s="3">
         <f t="shared" si="8"/>
         <v>44815</v>
       </c>
@@ -1095,7 +1103,7 @@
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="2">
@@ -1110,11 +1118,11 @@
         <f t="shared" si="0"/>
         <v>425.70000000000005</v>
       </c>
-      <c r="F14" s="4">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G14" s="4">
+      <c r="F14" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G14" s="3">
         <f t="shared" si="8"/>
         <v>44816</v>
       </c>
@@ -1140,7 +1148,7 @@
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="2">
@@ -1155,11 +1163,11 @@
         <f t="shared" si="0"/>
         <v>422.40000000000003</v>
       </c>
-      <c r="F15" s="4">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G15" s="4">
+      <c r="F15" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G15" s="3">
         <f t="shared" si="8"/>
         <v>44817</v>
       </c>
@@ -1185,7 +1193,7 @@
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="2">
@@ -1200,11 +1208,11 @@
         <f t="shared" si="0"/>
         <v>419.1</v>
       </c>
-      <c r="F16" s="4">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G16" s="4">
+      <c r="F16" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G16" s="3">
         <f t="shared" si="8"/>
         <v>44818</v>
       </c>
@@ -1230,7 +1238,7 @@
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="2">
@@ -1245,11 +1253,11 @@
         <f t="shared" si="0"/>
         <v>415.8</v>
       </c>
-      <c r="F17" s="4">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G17" s="4">
+      <c r="F17" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G17" s="3">
         <f t="shared" si="8"/>
         <v>44819</v>
       </c>
@@ -1275,7 +1283,7 @@
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="2">
@@ -1290,11 +1298,11 @@
         <f t="shared" si="0"/>
         <v>412.50000000000006</v>
       </c>
-      <c r="F18" s="4">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G18" s="4">
+      <c r="F18" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G18" s="3">
         <f t="shared" si="8"/>
         <v>44820</v>
       </c>
@@ -1320,7 +1328,7 @@
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="2">
@@ -1335,11 +1343,11 @@
         <f t="shared" si="0"/>
         <v>409.20000000000005</v>
       </c>
-      <c r="F19" s="4">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G19" s="4">
+      <c r="F19" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G19" s="3">
         <f t="shared" si="8"/>
         <v>44821</v>
       </c>
@@ -1365,7 +1373,7 @@
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="2">
@@ -1380,11 +1388,11 @@
         <f t="shared" si="0"/>
         <v>405.90000000000003</v>
       </c>
-      <c r="F20" s="4">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G20" s="4">
+      <c r="F20" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G20" s="3">
         <f t="shared" si="8"/>
         <v>44822</v>
       </c>
@@ -1410,7 +1418,7 @@
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="2">
@@ -1425,11 +1433,11 @@
         <f t="shared" si="0"/>
         <v>402.6</v>
       </c>
-      <c r="F21" s="4">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G21" s="4">
+      <c r="F21" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G21" s="3">
         <f t="shared" si="8"/>
         <v>44823</v>
       </c>
@@ -1455,7 +1463,7 @@
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="2">
@@ -1470,11 +1478,11 @@
         <f t="shared" si="0"/>
         <v>399.3</v>
       </c>
-      <c r="F22" s="4">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G22" s="4">
+      <c r="F22" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G22" s="3">
         <f t="shared" si="8"/>
         <v>44824</v>
       </c>
@@ -1500,7 +1508,7 @@
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="2">
@@ -1515,11 +1523,11 @@
         <f t="shared" si="0"/>
         <v>396.00000000000006</v>
       </c>
-      <c r="F23" s="4">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G23" s="4">
+      <c r="F23" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G23" s="3">
         <f t="shared" si="8"/>
         <v>44825</v>
       </c>
@@ -1545,7 +1553,7 @@
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C24" s="2">
@@ -1560,11 +1568,11 @@
         <f t="shared" si="0"/>
         <v>392.70000000000005</v>
       </c>
-      <c r="F24" s="4">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G24" s="4">
+      <c r="F24" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G24" s="3">
         <f t="shared" si="8"/>
         <v>44826</v>
       </c>
@@ -1590,7 +1598,7 @@
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="2">
@@ -1605,11 +1613,11 @@
         <f t="shared" si="0"/>
         <v>389.40000000000003</v>
       </c>
-      <c r="F25" s="4">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G25" s="4">
+      <c r="F25" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G25" s="3">
         <f t="shared" si="8"/>
         <v>44827</v>
       </c>
@@ -1635,7 +1643,7 @@
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="2">
@@ -1650,11 +1658,11 @@
         <f t="shared" si="0"/>
         <v>386.1</v>
       </c>
-      <c r="F26" s="4">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G26" s="4">
+      <c r="F26" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G26" s="3">
         <f t="shared" si="8"/>
         <v>44828</v>
       </c>
@@ -1680,7 +1688,7 @@
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="2">
@@ -1695,11 +1703,11 @@
         <f t="shared" si="0"/>
         <v>382.8</v>
       </c>
-      <c r="F27" s="4">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G27" s="4">
+      <c r="F27" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G27" s="3">
         <f t="shared" si="8"/>
         <v>44829</v>
       </c>
@@ -1725,7 +1733,7 @@
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="2">
@@ -1740,11 +1748,11 @@
         <f t="shared" si="0"/>
         <v>379.50000000000006</v>
       </c>
-      <c r="F28" s="4">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G28" s="4">
+      <c r="F28" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G28" s="3">
         <f t="shared" si="8"/>
         <v>44830</v>
       </c>
@@ -1770,7 +1778,7 @@
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C29" s="2">
@@ -1785,11 +1793,11 @@
         <f t="shared" si="0"/>
         <v>376.20000000000005</v>
       </c>
-      <c r="F29" s="4">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G29" s="4">
+      <c r="F29" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G29" s="3">
         <f t="shared" si="8"/>
         <v>44831</v>
       </c>
@@ -1815,7 +1823,7 @@
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C30" s="2">
@@ -1830,11 +1838,11 @@
         <f t="shared" si="0"/>
         <v>372.90000000000003</v>
       </c>
-      <c r="F30" s="4">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G30" s="4">
+      <c r="F30" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G30" s="3">
         <f t="shared" si="8"/>
         <v>44832</v>
       </c>
@@ -1860,7 +1868,7 @@
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C31" s="2">
@@ -1875,11 +1883,11 @@
         <f t="shared" si="0"/>
         <v>369.6</v>
       </c>
-      <c r="F31" s="4">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G31" s="4">
+      <c r="F31" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G31" s="3">
         <f t="shared" si="8"/>
         <v>44833</v>
       </c>
@@ -1905,7 +1913,7 @@
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C32" s="2">
@@ -1920,11 +1928,11 @@
         <f t="shared" si="0"/>
         <v>366.3</v>
       </c>
-      <c r="F32" s="4">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G32" s="4">
+      <c r="F32" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G32" s="3">
         <f t="shared" si="8"/>
         <v>44834</v>
       </c>
@@ -1950,7 +1958,7 @@
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C33" s="2">
@@ -1965,11 +1973,11 @@
         <f t="shared" si="0"/>
         <v>363.00000000000006</v>
       </c>
-      <c r="F33" s="4">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G33" s="4">
+      <c r="F33" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G33" s="3">
         <f t="shared" si="8"/>
         <v>44835</v>
       </c>
@@ -1995,7 +2003,7 @@
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C34" s="2">
@@ -2010,11 +2018,11 @@
         <f t="shared" si="0"/>
         <v>359.70000000000005</v>
       </c>
-      <c r="F34" s="4">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G34" s="4">
+      <c r="F34" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G34" s="3">
         <f t="shared" si="8"/>
         <v>44836</v>
       </c>
@@ -2040,7 +2048,7 @@
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C35" s="2">
@@ -2055,11 +2063,11 @@
         <f t="shared" si="0"/>
         <v>178.20000000000002</v>
       </c>
-      <c r="F35" s="4">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G35" s="4">
+      <c r="F35" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G35" s="3">
         <f t="shared" si="8"/>
         <v>44837</v>
       </c>
@@ -2085,7 +2093,7 @@
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C36" s="2">
@@ -2093,18 +2101,18 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" ref="D36:D38" si="10">D4/2</f>
+        <f>D3/2</f>
         <v>3.3000000000000003</v>
       </c>
       <c r="E36" s="2">
         <f t="shared" si="0"/>
         <v>176.55</v>
       </c>
-      <c r="F36" s="4">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G36" s="4">
+      <c r="F36" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G36" s="3">
         <f t="shared" si="8"/>
         <v>44838</v>
       </c>
@@ -2130,26 +2138,26 @@
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>35</v>
+      <c r="B37" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="C37" s="2">
         <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="D37" s="2">
-        <f t="shared" si="10"/>
+        <f>D3/2</f>
         <v>3.3000000000000003</v>
       </c>
       <c r="E37" s="2">
         <f t="shared" si="0"/>
         <v>174.9</v>
       </c>
-      <c r="F37" s="4">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G37" s="4">
+      <c r="F37" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G37" s="3">
         <f t="shared" si="8"/>
         <v>44839</v>
       </c>
@@ -2175,26 +2183,26 @@
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>36</v>
+      <c r="B38" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="C38" s="2">
         <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="2">
-        <f t="shared" si="10"/>
+        <f>D3/2</f>
         <v>3.3000000000000003</v>
       </c>
       <c r="E38" s="2">
         <f t="shared" si="0"/>
         <v>173.25</v>
       </c>
-      <c r="F38" s="4">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G38" s="4">
+      <c r="F38" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G38" s="3">
         <f t="shared" si="8"/>
         <v>44840</v>
       </c>
@@ -2230,11 +2238,11 @@
     </row>
     <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40" s="5">
-        <f>FLOOR(SUM(K3:K38), 1)</f>
+      <c r="B40" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="4">
+        <f>FLOOR(SUM(K3:K38),1)</f>
         <v>17630</v>
       </c>
       <c r="D40" s="1"/>
@@ -2248,8 +2256,8 @@
     </row>
     <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="6" t="s">
-        <v>48</v>
+      <c r="B41" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="C41" s="2">
         <f>AVERAGE(C3:C38)</f>
@@ -2266,8 +2274,8 @@
     </row>
     <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="6" t="s">
-        <v>47</v>
+      <c r="B42" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="C42" s="2">
         <f>MAX(H3:H38)</f>
@@ -2284,8 +2292,8 @@
     </row>
     <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="6" t="s">
-        <v>50</v>
+      <c r="B43" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="C43" s="2">
         <f>MAX(K3:K38)</f>
